--- a/RMI/RMI/media/Reporte/Eventos_Septiembre_-_Barajas.xlsx
+++ b/RMI/RMI/media/Reporte/Eventos_Septiembre_-_Barajas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\Instructor Líder - Area Actividad Fisica - Deporte\9. Eventos Sofia Plus 2017 - Líder\Eventos sofia plus - 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\Instructor Líder - Area Actividad Fisica - Deporte\9. Eventos Sofia Plus 2017 - Líder\Eventos sofia plus - 2017\Septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -434,9 +434,6 @@
     <t>Evaluar la gestion del talento humano según niveles de rendimiento, normas y procedimientos establecidos .</t>
   </si>
   <si>
-    <t>18:00 22:00</t>
-  </si>
-  <si>
     <t>Camerinos</t>
   </si>
   <si>
@@ -471,13 +468,16 @@
     <t>IDENTIFICAR LOS PARÁMETROS DE LA ACTIVIDAD FÍSICA DE ACUERDO CON LA EVIDENCIA TÉCNICOCIENTÍFICA VIGENTE Y SU IMPACTO EN LA SALUD DE LAS PERSONAS</t>
   </si>
   <si>
-    <t>07:00 a 13:00</t>
-  </si>
-  <si>
     <t>El acompañamiento en los seguimientos son necesarios como mecanismo de planeacion y seguimiento a etapa productiva de los aprendices y es garantia para que los aprendices refuercen sus conocimientos tecnicos y transversales recibidos en su programa de formacion.</t>
   </si>
   <si>
     <t>Seguimientos a Etapa Practica</t>
+  </si>
+  <si>
+    <t>07:00 a 12:45</t>
+  </si>
+  <si>
+    <t>19:15  A 22:00</t>
   </si>
 </sst>
 </file>
@@ -1973,59 +1973,122 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2045,71 +2108,84 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="36" fillId="11" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="20" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2118,108 +2194,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="20" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,134 +2214,215 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2432,13 +2487,25 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,14 +2526,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2486,15 +2550,6 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2504,280 +2559,219 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="36" fillId="11" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="11" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2785,31 +2779,37 @@
     <xf numFmtId="0" fontId="33" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3241,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BC1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56:T61"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3276,36 +3276,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="220" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="243"/>
       <c r="AA2" s="33"/>
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
@@ -3330,40 +3330,40 @@
       <c r="AV2" s="18"/>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="207"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="187" t="s">
+      <c r="A3" s="232"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="208" t="s">
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="208" t="s">
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="208" t="s">
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="210"/>
+      <c r="Z3" s="168"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
@@ -3388,38 +3388,38 @@
       <c r="AV3" s="18"/>
     </row>
     <row r="4" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="207"/>
-      <c r="B4" s="244"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="217" t="s">
+      <c r="A4" s="232"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="211" t="s">
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="212"/>
-      <c r="S4" s="212"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="213"/>
-      <c r="Y4" s="223" t="s">
+      <c r="R4" s="236"/>
+      <c r="S4" s="236"/>
+      <c r="T4" s="236"/>
+      <c r="U4" s="236"/>
+      <c r="V4" s="236"/>
+      <c r="W4" s="236"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="224"/>
+      <c r="Z4" s="173"/>
       <c r="AA4" s="33"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
@@ -3444,38 +3444,38 @@
       <c r="AV4" s="18"/>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="207"/>
-      <c r="B5" s="178" t="s">
+      <c r="A5" s="232"/>
+      <c r="B5" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="208" t="s">
+      <c r="C5" s="200"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="214" t="s">
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="216"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="226"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="240"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="175"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
       <c r="AC5" s="33"/>
@@ -3500,36 +3500,36 @@
       <c r="AV5" s="18"/>
     </row>
     <row r="6" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="207"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="217">
+      <c r="A6" s="232"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="169">
         <v>6663014</v>
       </c>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="218"/>
-      <c r="L6" s="218"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="217">
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="169">
         <v>3102820494</v>
       </c>
-      <c r="R6" s="218"/>
-      <c r="S6" s="218"/>
-      <c r="T6" s="218"/>
-      <c r="U6" s="218"/>
-      <c r="V6" s="218"/>
-      <c r="W6" s="218"/>
-      <c r="X6" s="219"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="228"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
+      <c r="U6" s="170"/>
+      <c r="V6" s="170"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="177"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="33"/>
@@ -3554,32 +3554,32 @@
       <c r="AV6" s="18"/>
     </row>
     <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="207"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="198"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="219"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
@@ -3604,32 +3604,32 @@
       <c r="AV7" s="18"/>
     </row>
     <row r="8" spans="1:48" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="252"/>
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="252"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="252"/>
-      <c r="N8" s="252"/>
-      <c r="O8" s="252"/>
-      <c r="P8" s="252"/>
-      <c r="Q8" s="252"/>
-      <c r="R8" s="252"/>
-      <c r="S8" s="252"/>
-      <c r="T8" s="252"/>
-      <c r="U8" s="252"/>
-      <c r="V8" s="252"/>
-      <c r="W8" s="252"/>
-      <c r="X8" s="252"/>
-      <c r="Y8" s="252"/>
-      <c r="Z8" s="252"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
       <c r="AC8" s="33"/>
@@ -3654,34 +3654,34 @@
       <c r="AV8" s="18"/>
     </row>
     <row r="9" spans="1:48" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="205"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
+      <c r="M9" s="229"/>
+      <c r="N9" s="229"/>
+      <c r="O9" s="229"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="229"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="229"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="229"/>
+      <c r="Y9" s="229"/>
+      <c r="Z9" s="230"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
       <c r="AC9" s="33"/>
@@ -3706,60 +3706,60 @@
       <c r="AV9" s="18"/>
     </row>
     <row r="10" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="111" t="s">
+      <c r="H10" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="107"/>
-      <c r="J10" s="87" t="s">
+      <c r="I10" s="221"/>
+      <c r="J10" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="83" t="s">
+      <c r="Q10" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="85" t="s">
+      <c r="R10" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="85" t="s">
+      <c r="S10" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="81" t="s">
+      <c r="T10" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="229" t="s">
+      <c r="U10" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="230"/>
-      <c r="W10" s="230"/>
-      <c r="X10" s="230"/>
-      <c r="Y10" s="230"/>
-      <c r="Z10" s="231"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="180"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
       <c r="AC10" s="33"/>
@@ -3784,15 +3784,15 @@
       <c r="AV10" s="18"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="168"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="200"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="223"/>
       <c r="J11" s="9" t="s">
         <v>13</v>
       </c>
@@ -3814,16 +3814,16 @@
       <c r="P11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="169"/>
-      <c r="U11" s="232"/>
-      <c r="V11" s="233"/>
-      <c r="W11" s="233"/>
-      <c r="X11" s="233"/>
-      <c r="Y11" s="233"/>
-      <c r="Z11" s="234"/>
+      <c r="Q11" s="227"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="183"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
@@ -3910,60 +3910,60 @@
       <c r="AV12" s="18"/>
     </row>
     <row r="13" spans="1:48" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170">
+      <c r="A13" s="91">
         <v>1441239</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="247" t="s">
+      <c r="C13" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="129">
+      <c r="E13" s="123">
         <v>36</v>
       </c>
-      <c r="F13" s="170" t="s">
+      <c r="F13" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="149">
         <v>30</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170" t="s">
+      <c r="I13" s="110"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="170" t="s">
+      <c r="M13" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="170" t="s">
+      <c r="N13" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="170" t="s">
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="132">
+      <c r="R13" s="126">
         <v>12</v>
       </c>
-      <c r="S13" s="132">
+      <c r="S13" s="126">
         <v>24</v>
       </c>
-      <c r="T13" s="235">
+      <c r="T13" s="186">
         <v>36</v>
       </c>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="48"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="194"/>
       <c r="Y13" s="43">
         <v>1</v>
       </c>
@@ -3994,26 +3994,26 @@
       <c r="AV13" s="18"/>
     </row>
     <row r="14" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="171"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="236"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="187"/>
       <c r="U14" s="38">
         <v>4</v>
       </c>
@@ -4056,26 +4056,26 @@
       <c r="AV14" s="18"/>
     </row>
     <row r="15" spans="1:48" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="236"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="187"/>
       <c r="U15" s="38">
         <v>11</v>
       </c>
@@ -4118,26 +4118,26 @@
       <c r="AV15" s="18"/>
     </row>
     <row r="16" spans="1:48" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="236"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="187"/>
       <c r="U16" s="38">
         <v>18</v>
       </c>
@@ -4180,26 +4180,26 @@
       <c r="AV16" s="18"/>
     </row>
     <row r="17" spans="1:48" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="236"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="187"/>
       <c r="U17" s="38">
         <v>25</v>
       </c>
@@ -4242,32 +4242,32 @@
       <c r="AV17" s="18"/>
     </row>
     <row r="18" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="237"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="51"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="191"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
       <c r="AC18" s="33"/>
@@ -4292,60 +4292,60 @@
       <c r="AV18" s="18"/>
     </row>
     <row r="19" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170">
+      <c r="A19" s="91">
         <v>1441239</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="170" t="s">
+      <c r="D19" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="129">
+      <c r="E19" s="123">
         <v>90</v>
       </c>
-      <c r="F19" s="170" t="s">
+      <c r="F19" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="170" t="s">
+      <c r="G19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="149">
         <v>30</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="170" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="170" t="s">
+      <c r="L19" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="170" t="s">
+      <c r="M19" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="170" t="s">
+      <c r="N19" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="170" t="s">
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="254"/>
-      <c r="S19" s="261">
+      <c r="R19" s="137"/>
+      <c r="S19" s="131">
         <v>78</v>
       </c>
-      <c r="T19" s="262">
+      <c r="T19" s="134">
         <v>78</v>
       </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="194"/>
       <c r="Y19" s="37">
         <v>1</v>
       </c>
@@ -4376,26 +4376,26 @@
       <c r="AV19" s="18"/>
     </row>
     <row r="20" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="255"/>
-      <c r="P20" s="255"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="256"/>
-      <c r="S20" s="263"/>
-      <c r="T20" s="264"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
       <c r="U20" s="38">
         <v>4</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="X20" s="34">
         <v>7</v>
       </c>
-      <c r="Y20" s="259">
+      <c r="Y20" s="46">
         <v>8</v>
       </c>
       <c r="Z20" s="39">
@@ -4438,39 +4438,39 @@
       <c r="AV20" s="18"/>
     </row>
     <row r="21" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="255"/>
-      <c r="P21" s="255"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="256"/>
-      <c r="S21" s="263"/>
-      <c r="T21" s="264"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="135"/>
       <c r="U21" s="38">
         <v>11</v>
       </c>
-      <c r="V21" s="259">
+      <c r="V21" s="46">
         <v>12</v>
       </c>
-      <c r="W21" s="260">
+      <c r="W21" s="47">
         <v>13</v>
       </c>
-      <c r="X21" s="259">
+      <c r="X21" s="46">
         <v>14</v>
       </c>
-      <c r="Y21" s="260">
+      <c r="Y21" s="47">
         <v>15</v>
       </c>
       <c r="Z21" s="36">
@@ -4500,39 +4500,39 @@
       <c r="AV21" s="18"/>
     </row>
     <row r="22" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="255"/>
-      <c r="P22" s="255"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="256"/>
-      <c r="S22" s="263"/>
-      <c r="T22" s="264"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="135"/>
       <c r="U22" s="38">
         <v>18</v>
       </c>
-      <c r="V22" s="260">
+      <c r="V22" s="47">
         <v>19</v>
       </c>
-      <c r="W22" s="260">
+      <c r="W22" s="47">
         <v>20</v>
       </c>
-      <c r="X22" s="260">
+      <c r="X22" s="47">
         <v>21</v>
       </c>
-      <c r="Y22" s="260">
+      <c r="Y22" s="47">
         <v>22</v>
       </c>
       <c r="Z22" s="36">
@@ -4562,39 +4562,39 @@
       <c r="AV22" s="18"/>
     </row>
     <row r="23" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="255"/>
-      <c r="P23" s="255"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="256"/>
-      <c r="S23" s="263"/>
-      <c r="T23" s="264"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="135"/>
       <c r="U23" s="38">
         <v>25</v>
       </c>
-      <c r="V23" s="260">
+      <c r="V23" s="47">
         <v>26</v>
       </c>
-      <c r="W23" s="260">
+      <c r="W23" s="47">
         <v>27</v>
       </c>
-      <c r="X23" s="260">
+      <c r="X23" s="47">
         <v>28</v>
       </c>
-      <c r="Y23" s="260">
+      <c r="Y23" s="47">
         <v>29</v>
       </c>
       <c r="Z23" s="36">
@@ -4624,32 +4624,32 @@
       <c r="AV23" s="18"/>
     </row>
     <row r="24" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="258"/>
-      <c r="S24" s="265"/>
-      <c r="T24" s="266"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="51"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="190"/>
+      <c r="X24" s="190"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="191"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
@@ -4674,74 +4674,68 @@
       <c r="AV24" s="18"/>
     </row>
     <row r="25" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="267">
+      <c r="A25" s="302">
         <v>1167021</v>
       </c>
-      <c r="B25" s="268" t="s">
+      <c r="B25" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="268" t="s">
+      <c r="C25" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="269" t="s">
+      <c r="D25" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="301">
+      <c r="E25" s="94">
         <v>52</v>
       </c>
-      <c r="F25" s="270" t="s">
+      <c r="F25" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="269" t="s">
+      <c r="G25" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="280">
+      <c r="H25" s="109">
         <v>10</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="271" t="s">
+      <c r="I25" s="110"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="271" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="271" t="s">
-        <v>62</v>
-      </c>
-      <c r="M25" s="271" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="271" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
-      <c r="Q25" s="269" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25" s="269"/>
-      <c r="S25" s="295">
-        <v>8</v>
-      </c>
-      <c r="T25" s="296">
-        <v>8</v>
-      </c>
-      <c r="U25" s="46"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="48"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="309">
+        <v>5</v>
+      </c>
+      <c r="T25" s="306">
+        <v>5</v>
+      </c>
+      <c r="U25" s="192"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="194"/>
       <c r="Y25" s="37">
         <v>1</v>
       </c>
       <c r="Z25" s="19">
         <v>2</v>
       </c>
-      <c r="AA25" s="286" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB25" s="287"/>
-      <c r="AC25" s="287"/>
-      <c r="AD25" s="288"/>
+      <c r="AA25" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="57"/>
       <c r="AE25" s="33"/>
       <c r="AF25" s="33"/>
       <c r="AG25" s="33"/>
@@ -4761,27 +4755,27 @@
       <c r="AU25" s="33"/>
       <c r="AV25" s="18"/>
     </row>
-    <row r="26" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="272"/>
-      <c r="B26" s="273"/>
-      <c r="C26" s="274"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="297"/>
-      <c r="F26" s="275"/>
-      <c r="G26" s="273"/>
-      <c r="H26" s="281"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="273"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="273"/>
-      <c r="M26" s="273"/>
-      <c r="N26" s="273"/>
-      <c r="O26" s="273"/>
-      <c r="P26" s="273"/>
-      <c r="Q26" s="273"/>
-      <c r="R26" s="273"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="298"/>
+    <row r="26" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="303"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="307"/>
       <c r="U26" s="38">
         <v>4</v>
       </c>
@@ -4800,10 +4794,10 @@
       <c r="Z26" s="39">
         <v>9</v>
       </c>
-      <c r="AA26" s="289"/>
-      <c r="AB26" s="283"/>
-      <c r="AC26" s="283"/>
-      <c r="AD26" s="290"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="60"/>
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
       <c r="AG26" s="33"/>
@@ -4823,27 +4817,27 @@
       <c r="AU26" s="33"/>
       <c r="AV26" s="18"/>
     </row>
-    <row r="27" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="272"/>
-      <c r="B27" s="273"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="297"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="273"/>
-      <c r="K27" s="273"/>
-      <c r="L27" s="273"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="273"/>
-      <c r="R27" s="273"/>
-      <c r="S27" s="297"/>
-      <c r="T27" s="298"/>
+    <row r="27" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="303"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="307"/>
       <c r="U27" s="38">
         <v>11</v>
       </c>
@@ -4853,19 +4847,19 @@
       <c r="W27" s="34">
         <v>13</v>
       </c>
-      <c r="X27" s="284">
+      <c r="X27" s="48">
         <v>14</v>
       </c>
-      <c r="Y27" s="285">
+      <c r="Y27" s="49">
         <v>15</v>
       </c>
       <c r="Z27" s="36">
         <v>16</v>
       </c>
-      <c r="AA27" s="289"/>
-      <c r="AB27" s="283"/>
-      <c r="AC27" s="283"/>
-      <c r="AD27" s="290"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
       <c r="AE27" s="33"/>
       <c r="AF27" s="33"/>
       <c r="AG27" s="33"/>
@@ -4885,27 +4879,27 @@
       <c r="AU27" s="33"/>
       <c r="AV27" s="18"/>
     </row>
-    <row r="28" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="272"/>
-      <c r="B28" s="273"/>
-      <c r="C28" s="274"/>
-      <c r="D28" s="273"/>
-      <c r="E28" s="297"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="273"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="273"/>
-      <c r="L28" s="273"/>
-      <c r="M28" s="273"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="273"/>
-      <c r="P28" s="273"/>
-      <c r="Q28" s="273"/>
-      <c r="R28" s="273"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="298"/>
+    <row r="28" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="303"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="307"/>
       <c r="U28" s="38">
         <v>18</v>
       </c>
@@ -4924,10 +4918,10 @@
       <c r="Z28" s="36">
         <v>23</v>
       </c>
-      <c r="AA28" s="289"/>
-      <c r="AB28" s="283"/>
-      <c r="AC28" s="283"/>
-      <c r="AD28" s="290"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="60"/>
       <c r="AE28" s="33"/>
       <c r="AF28" s="33"/>
       <c r="AG28" s="33"/>
@@ -4947,27 +4941,27 @@
       <c r="AU28" s="33"/>
       <c r="AV28" s="18"/>
     </row>
-    <row r="29" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="272"/>
-      <c r="B29" s="273"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="275"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="281"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="273"/>
-      <c r="K29" s="273"/>
-      <c r="L29" s="273"/>
-      <c r="M29" s="273"/>
-      <c r="N29" s="273"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="273"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="273"/>
-      <c r="S29" s="297"/>
-      <c r="T29" s="298"/>
+    <row r="29" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="303"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="307"/>
       <c r="U29" s="38">
         <v>25</v>
       </c>
@@ -4986,10 +4980,10 @@
       <c r="Z29" s="36">
         <v>30</v>
       </c>
-      <c r="AA29" s="289"/>
-      <c r="AB29" s="283"/>
-      <c r="AC29" s="283"/>
-      <c r="AD29" s="290"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="60"/>
       <c r="AE29" s="33"/>
       <c r="AF29" s="33"/>
       <c r="AG29" s="33"/>
@@ -5009,37 +5003,37 @@
       <c r="AU29" s="33"/>
       <c r="AV29" s="18"/>
     </row>
-    <row r="30" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="276"/>
-      <c r="B30" s="277"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="282"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="277"/>
-      <c r="K30" s="277"/>
-      <c r="L30" s="277"/>
-      <c r="M30" s="277"/>
-      <c r="N30" s="277"/>
-      <c r="O30" s="277"/>
-      <c r="P30" s="277"/>
-      <c r="Q30" s="277"/>
-      <c r="R30" s="277"/>
-      <c r="S30" s="299"/>
-      <c r="T30" s="300"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="291"/>
-      <c r="AB30" s="292"/>
-      <c r="AC30" s="292"/>
-      <c r="AD30" s="293"/>
+    <row r="30" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="304"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="308"/>
+      <c r="U30" s="189"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="191"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="63"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="33"/>
       <c r="AG30" s="33"/>
@@ -5060,66 +5054,66 @@
       <c r="AV30" s="18"/>
     </row>
     <row r="31" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="267">
+      <c r="A31" s="302">
         <v>1167021</v>
       </c>
-      <c r="B31" s="268" t="s">
+      <c r="B31" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="268" t="s">
+      <c r="C31" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="269" t="s">
+      <c r="D31" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="301">
+      <c r="E31" s="94">
         <v>52</v>
       </c>
-      <c r="F31" s="270" t="s">
+      <c r="F31" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="269" t="s">
+      <c r="G31" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="280">
+      <c r="H31" s="109">
         <v>10</v>
       </c>
-      <c r="I31" s="73"/>
-      <c r="J31" s="271"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
-      <c r="O31" s="271" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="271"/>
-      <c r="Q31" s="269" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="269"/>
-      <c r="S31" s="295">
+      <c r="I31" s="110"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="97"/>
+      <c r="S31" s="309">
         <v>24</v>
       </c>
-      <c r="T31" s="296">
+      <c r="T31" s="306">
         <v>24</v>
       </c>
-      <c r="U31" s="46"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="48"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="194"/>
       <c r="Y31" s="37">
         <v>1</v>
       </c>
-      <c r="Z31" s="294">
+      <c r="Z31" s="50">
         <v>2</v>
       </c>
-      <c r="AA31" s="286" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB31" s="287"/>
-      <c r="AC31" s="287"/>
-      <c r="AD31" s="288"/>
+      <c r="AA31" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="57"/>
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
       <c r="AG31" s="33"/>
@@ -5140,26 +5134,26 @@
       <c r="AV31" s="18"/>
     </row>
     <row r="32" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="272"/>
-      <c r="B32" s="273"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="281"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="273"/>
-      <c r="K32" s="273"/>
-      <c r="L32" s="273"/>
-      <c r="M32" s="273"/>
-      <c r="N32" s="273"/>
-      <c r="O32" s="273"/>
-      <c r="P32" s="273"/>
-      <c r="Q32" s="273"/>
-      <c r="R32" s="273"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="298"/>
+      <c r="A32" s="303"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="307"/>
       <c r="U32" s="38">
         <v>4</v>
       </c>
@@ -5175,13 +5169,13 @@
       <c r="Y32" s="35">
         <v>8</v>
       </c>
-      <c r="Z32" s="294">
+      <c r="Z32" s="50">
         <v>9</v>
       </c>
-      <c r="AA32" s="289"/>
-      <c r="AB32" s="283"/>
-      <c r="AC32" s="283"/>
-      <c r="AD32" s="290"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="60"/>
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
       <c r="AG32" s="33"/>
@@ -5202,26 +5196,26 @@
       <c r="AV32" s="18"/>
     </row>
     <row r="33" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="272"/>
-      <c r="B33" s="273"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="281"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="273"/>
-      <c r="K33" s="273"/>
-      <c r="L33" s="273"/>
-      <c r="M33" s="273"/>
-      <c r="N33" s="273"/>
-      <c r="O33" s="273"/>
-      <c r="P33" s="273"/>
-      <c r="Q33" s="273"/>
-      <c r="R33" s="273"/>
-      <c r="S33" s="297"/>
-      <c r="T33" s="298"/>
+      <c r="A33" s="303"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="307"/>
       <c r="U33" s="38">
         <v>11</v>
       </c>
@@ -5237,13 +5231,13 @@
       <c r="Y33" s="34">
         <v>15</v>
       </c>
-      <c r="Z33" s="294">
+      <c r="Z33" s="50">
         <v>16</v>
       </c>
-      <c r="AA33" s="289"/>
-      <c r="AB33" s="283"/>
-      <c r="AC33" s="283"/>
-      <c r="AD33" s="290"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
       <c r="AG33" s="33"/>
@@ -5264,26 +5258,26 @@
       <c r="AV33" s="18"/>
     </row>
     <row r="34" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="272"/>
-      <c r="B34" s="273"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="297"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="281"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="273"/>
-      <c r="K34" s="273"/>
-      <c r="L34" s="273"/>
-      <c r="M34" s="273"/>
-      <c r="N34" s="273"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="273"/>
-      <c r="Q34" s="273"/>
-      <c r="R34" s="273"/>
-      <c r="S34" s="297"/>
-      <c r="T34" s="298"/>
+      <c r="A34" s="303"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="307"/>
       <c r="U34" s="38">
         <v>18</v>
       </c>
@@ -5299,13 +5293,13 @@
       <c r="Y34" s="34">
         <v>22</v>
       </c>
-      <c r="Z34" s="294">
+      <c r="Z34" s="50">
         <v>23</v>
       </c>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="283"/>
-      <c r="AC34" s="283"/>
-      <c r="AD34" s="290"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
       <c r="AG34" s="33"/>
@@ -5326,26 +5320,26 @@
       <c r="AV34" s="18"/>
     </row>
     <row r="35" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="272"/>
-      <c r="B35" s="273"/>
-      <c r="C35" s="274"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="297"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="281"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="273"/>
-      <c r="K35" s="273"/>
-      <c r="L35" s="273"/>
-      <c r="M35" s="273"/>
-      <c r="N35" s="273"/>
-      <c r="O35" s="273"/>
-      <c r="P35" s="273"/>
-      <c r="Q35" s="273"/>
-      <c r="R35" s="273"/>
-      <c r="S35" s="297"/>
-      <c r="T35" s="298"/>
+      <c r="A35" s="303"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="307"/>
       <c r="U35" s="38">
         <v>25</v>
       </c>
@@ -5364,10 +5358,10 @@
       <c r="Z35" s="36">
         <v>30</v>
       </c>
-      <c r="AA35" s="289"/>
-      <c r="AB35" s="283"/>
-      <c r="AC35" s="283"/>
-      <c r="AD35" s="290"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="60"/>
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
       <c r="AG35" s="33"/>
@@ -5388,36 +5382,36 @@
       <c r="AV35" s="18"/>
     </row>
     <row r="36" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="272"/>
-      <c r="B36" s="273"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="297"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="273"/>
-      <c r="H36" s="281"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="273"/>
-      <c r="K36" s="273"/>
-      <c r="L36" s="273"/>
-      <c r="M36" s="273"/>
-      <c r="N36" s="273"/>
-      <c r="O36" s="273"/>
-      <c r="P36" s="273"/>
-      <c r="Q36" s="273"/>
-      <c r="R36" s="273"/>
-      <c r="S36" s="297"/>
-      <c r="T36" s="298"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="291"/>
-      <c r="AB36" s="292"/>
-      <c r="AC36" s="292"/>
-      <c r="AD36" s="293"/>
+      <c r="A36" s="303"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="307"/>
+      <c r="U36" s="189"/>
+      <c r="V36" s="190"/>
+      <c r="W36" s="190"/>
+      <c r="X36" s="190"/>
+      <c r="Y36" s="190"/>
+      <c r="Z36" s="191"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="63"/>
       <c r="AE36" s="33"/>
       <c r="AF36" s="33"/>
       <c r="AG36" s="33"/>
@@ -5438,75 +5432,75 @@
       <c r="AV36" s="18"/>
     </row>
     <row r="37" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="322">
+      <c r="A37" s="140">
         <v>1441204</v>
       </c>
-      <c r="B37" s="247" t="s">
+      <c r="B37" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="247" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="247" t="s">
+      <c r="E37" s="143">
+        <v>142.5</v>
+      </c>
+      <c r="F37" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="315">
-        <v>142.5</v>
-      </c>
-      <c r="F37" s="315" t="s">
+      <c r="G37" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="325" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="72">
+      <c r="H37" s="149">
         <v>15</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="312" t="s">
-        <v>71</v>
-      </c>
-      <c r="L37" s="312" t="s">
-        <v>71</v>
-      </c>
-      <c r="M37" s="312" t="s">
-        <v>71</v>
-      </c>
-      <c r="N37" s="312" t="s">
-        <v>71</v>
-      </c>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="129" t="s">
+      <c r="I37" s="110"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="R37" s="132">
+      <c r="R37" s="126">
         <v>119.25</v>
       </c>
-      <c r="S37" s="132">
-        <v>24</v>
-      </c>
-      <c r="T37" s="58">
+      <c r="S37" s="126">
+        <v>23</v>
+      </c>
+      <c r="T37" s="326">
         <v>143.25</v>
       </c>
-      <c r="U37" s="46"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="328">
+      <c r="U37" s="192"/>
+      <c r="V37" s="193"/>
+      <c r="W37" s="193"/>
+      <c r="X37" s="194"/>
+      <c r="Y37" s="52">
         <v>1</v>
       </c>
       <c r="Z37" s="19">
         <v>2</v>
       </c>
-      <c r="AA37" s="303" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB37" s="304"/>
-      <c r="AC37" s="304"/>
-      <c r="AD37" s="305"/>
-      <c r="AE37" s="302"/>
+      <c r="AA37" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="51"/>
       <c r="AF37" s="33"/>
       <c r="AG37" s="33"/>
       <c r="AH37" s="33"/>
@@ -5526,36 +5520,36 @@
       <c r="AV37" s="18"/>
     </row>
     <row r="38" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="323"/>
-      <c r="B38" s="248"/>
-      <c r="C38" s="248"/>
-      <c r="D38" s="248"/>
-      <c r="E38" s="316"/>
-      <c r="F38" s="316"/>
-      <c r="G38" s="326"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="313"/>
-      <c r="L38" s="313"/>
-      <c r="M38" s="313"/>
-      <c r="N38" s="313"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="133"/>
-      <c r="S38" s="133"/>
-      <c r="T38" s="59"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="324"/>
       <c r="U38" s="38">
         <v>4</v>
       </c>
-      <c r="V38" s="329">
+      <c r="V38" s="53">
         <v>5</v>
       </c>
-      <c r="W38" s="330">
+      <c r="W38" s="54">
         <v>6</v>
       </c>
-      <c r="X38" s="329">
+      <c r="X38" s="53">
         <v>7</v>
       </c>
       <c r="Y38" s="35">
@@ -5564,11 +5558,11 @@
       <c r="Z38" s="39">
         <v>9</v>
       </c>
-      <c r="AA38" s="306"/>
-      <c r="AB38" s="307"/>
-      <c r="AC38" s="307"/>
-      <c r="AD38" s="308"/>
-      <c r="AE38" s="302"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="69"/>
+      <c r="AE38" s="51"/>
       <c r="AF38" s="33"/>
       <c r="AG38" s="33"/>
       <c r="AH38" s="33"/>
@@ -5588,26 +5582,26 @@
       <c r="AV38" s="18"/>
     </row>
     <row r="39" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="323"/>
-      <c r="B39" s="248"/>
-      <c r="C39" s="248"/>
-      <c r="D39" s="248"/>
-      <c r="E39" s="316"/>
-      <c r="F39" s="316"/>
-      <c r="G39" s="326"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="313"/>
-      <c r="L39" s="313"/>
-      <c r="M39" s="313"/>
-      <c r="N39" s="313"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="59"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="324"/>
       <c r="U39" s="38">
         <v>11</v>
       </c>
@@ -5626,11 +5620,11 @@
       <c r="Z39" s="36">
         <v>16</v>
       </c>
-      <c r="AA39" s="306"/>
-      <c r="AB39" s="307"/>
-      <c r="AC39" s="307"/>
-      <c r="AD39" s="308"/>
-      <c r="AE39" s="302"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="69"/>
+      <c r="AE39" s="51"/>
       <c r="AF39" s="33"/>
       <c r="AG39" s="33"/>
       <c r="AH39" s="33"/>
@@ -5650,26 +5644,26 @@
       <c r="AV39" s="18"/>
     </row>
     <row r="40" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="323"/>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="316"/>
-      <c r="F40" s="316"/>
-      <c r="G40" s="326"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="313"/>
-      <c r="L40" s="313"/>
-      <c r="M40" s="313"/>
-      <c r="N40" s="313"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="59"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="127"/>
+      <c r="T40" s="324"/>
       <c r="U40" s="38">
         <v>18</v>
       </c>
@@ -5688,10 +5682,10 @@
       <c r="Z40" s="36">
         <v>23</v>
       </c>
-      <c r="AA40" s="306"/>
-      <c r="AB40" s="307"/>
-      <c r="AC40" s="307"/>
-      <c r="AD40" s="308"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="69"/>
       <c r="AE40" s="33"/>
       <c r="AF40" s="33"/>
       <c r="AG40" s="33"/>
@@ -5712,26 +5706,26 @@
       <c r="AV40" s="18"/>
     </row>
     <row r="41" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="323"/>
-      <c r="B41" s="248"/>
-      <c r="C41" s="248"/>
-      <c r="D41" s="248"/>
-      <c r="E41" s="316"/>
-      <c r="F41" s="316"/>
-      <c r="G41" s="326"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="313"/>
-      <c r="L41" s="313"/>
-      <c r="M41" s="313"/>
-      <c r="N41" s="313"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="133"/>
-      <c r="S41" s="133"/>
-      <c r="T41" s="59"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="324"/>
       <c r="U41" s="38">
         <v>25</v>
       </c>
@@ -5750,10 +5744,10 @@
       <c r="Z41" s="36">
         <v>30</v>
       </c>
-      <c r="AA41" s="306"/>
-      <c r="AB41" s="307"/>
-      <c r="AC41" s="307"/>
-      <c r="AD41" s="308"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="69"/>
       <c r="AE41" s="33"/>
       <c r="AF41" s="33"/>
       <c r="AG41" s="33"/>
@@ -5774,36 +5768,36 @@
       <c r="AV41" s="18"/>
     </row>
     <row r="42" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="324"/>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="249"/>
-      <c r="E42" s="317"/>
-      <c r="F42" s="317"/>
-      <c r="G42" s="327"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="314"/>
-      <c r="L42" s="314"/>
-      <c r="M42" s="314"/>
-      <c r="N42" s="314"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="309"/>
-      <c r="AB42" s="310"/>
-      <c r="AC42" s="310"/>
-      <c r="AD42" s="311"/>
+      <c r="A42" s="142"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="325"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="190"/>
+      <c r="W42" s="190"/>
+      <c r="X42" s="190"/>
+      <c r="Y42" s="190"/>
+      <c r="Z42" s="191"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="72"/>
       <c r="AE42" s="33"/>
       <c r="AF42" s="33"/>
       <c r="AG42" s="33"/>
@@ -5824,36 +5818,36 @@
       <c r="AV42" s="18"/>
     </row>
     <row r="43" spans="1:48" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="319" t="s">
+      <c r="A43" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="318"/>
-      <c r="C43" s="318"/>
-      <c r="D43" s="318"/>
-      <c r="E43" s="318"/>
-      <c r="F43" s="318"/>
-      <c r="G43" s="318"/>
-      <c r="H43" s="320" t="s">
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="321"/>
-      <c r="J43" s="321"/>
-      <c r="K43" s="321"/>
-      <c r="L43" s="321"/>
-      <c r="M43" s="321"/>
-      <c r="N43" s="321"/>
-      <c r="O43" s="321"/>
-      <c r="P43" s="321"/>
-      <c r="Q43" s="321"/>
-      <c r="R43" s="321"/>
-      <c r="S43" s="321"/>
-      <c r="T43" s="321"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="71"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="319"/>
+      <c r="N43" s="319"/>
+      <c r="O43" s="319"/>
+      <c r="P43" s="319"/>
+      <c r="Q43" s="319"/>
+      <c r="R43" s="319"/>
+      <c r="S43" s="319"/>
+      <c r="T43" s="319"/>
+      <c r="U43" s="320"/>
+      <c r="V43" s="320"/>
+      <c r="W43" s="320"/>
+      <c r="X43" s="320"/>
+      <c r="Y43" s="320"/>
+      <c r="Z43" s="321"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
@@ -5878,34 +5872,34 @@
       <c r="AV43" s="18"/>
     </row>
     <row r="44" spans="1:48" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A44" s="135"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="52" t="s">
+      <c r="A44" s="253"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="327" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="54"/>
+      <c r="I44" s="328"/>
+      <c r="J44" s="328"/>
+      <c r="K44" s="328"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="328"/>
+      <c r="P44" s="328"/>
+      <c r="Q44" s="328"/>
+      <c r="R44" s="328"/>
+      <c r="S44" s="328"/>
+      <c r="T44" s="328"/>
+      <c r="U44" s="328"/>
+      <c r="V44" s="328"/>
+      <c r="W44" s="328"/>
+      <c r="X44" s="328"/>
+      <c r="Y44" s="328"/>
+      <c r="Z44" s="329"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
       <c r="AC44" s="33"/>
@@ -5989,25 +5983,25 @@
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="98"/>
+      <c r="J46" s="316"/>
+      <c r="K46" s="316"/>
+      <c r="L46" s="316"/>
+      <c r="M46" s="316"/>
+      <c r="N46" s="316"/>
+      <c r="O46" s="316"/>
+      <c r="P46" s="316"/>
+      <c r="Q46" s="317"/>
       <c r="R46" s="6"/>
       <c r="S46" s="7">
         <f>SUM(S13:S42)</f>
-        <v>158</v>
-      </c>
-      <c r="T46" s="95"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
+        <v>154</v>
+      </c>
+      <c r="T46" s="314"/>
+      <c r="U46" s="315"/>
+      <c r="V46" s="315"/>
+      <c r="W46" s="315"/>
+      <c r="X46" s="315"/>
+      <c r="Y46" s="315"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
@@ -6033,33 +6027,33 @@
       <c r="AV46" s="18"/>
     </row>
     <row r="47" spans="1:48" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
+      <c r="B47" s="313"/>
+      <c r="C47" s="313"/>
+      <c r="D47" s="313"/>
+      <c r="E47" s="313"/>
+      <c r="F47" s="313"/>
+      <c r="G47" s="313"/>
+      <c r="H47" s="313"/>
+      <c r="I47" s="313"/>
+      <c r="J47" s="313"/>
+      <c r="K47" s="313"/>
+      <c r="L47" s="313"/>
+      <c r="M47" s="313"/>
+      <c r="N47" s="313"/>
+      <c r="O47" s="313"/>
+      <c r="P47" s="313"/>
+      <c r="Q47" s="313"/>
+      <c r="R47" s="313"/>
+      <c r="S47" s="313"/>
+      <c r="T47" s="313"/>
+      <c r="U47" s="313"/>
+      <c r="V47" s="313"/>
+      <c r="W47" s="313"/>
+      <c r="X47" s="313"/>
+      <c r="Y47" s="313"/>
       <c r="Z47" s="27"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
@@ -6085,52 +6079,52 @@
       <c r="AV47" s="18"/>
     </row>
     <row r="48" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="111" t="s">
+      <c r="B48" s="289"/>
+      <c r="C48" s="289"/>
+      <c r="D48" s="289"/>
+      <c r="E48" s="221"/>
+      <c r="F48" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="81" t="s">
+      <c r="G48" s="221"/>
+      <c r="H48" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="113" t="s">
+      <c r="I48" s="294" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="87" t="s">
+      <c r="J48" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
+      <c r="K48" s="234"/>
+      <c r="L48" s="234"/>
+      <c r="M48" s="234"/>
+      <c r="N48" s="234"/>
+      <c r="O48" s="234"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="83" t="s">
+      <c r="Q48" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="R48" s="85" t="s">
+      <c r="R48" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="S48" s="85" t="s">
+      <c r="S48" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="81" t="s">
+      <c r="T48" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="U48" s="87" t="s">
+      <c r="U48" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="89"/>
+      <c r="V48" s="234"/>
+      <c r="W48" s="234"/>
+      <c r="X48" s="234"/>
+      <c r="Y48" s="234"/>
+      <c r="Z48" s="322"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
       <c r="AC48" s="33"/>
@@ -6155,15 +6149,15 @@
       <c r="AV48" s="18"/>
     </row>
     <row r="49" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="114"/>
+      <c r="A49" s="290"/>
+      <c r="B49" s="291"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="292"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="292"/>
+      <c r="H49" s="296"/>
+      <c r="I49" s="295"/>
       <c r="J49" s="8" t="s">
         <v>13</v>
       </c>
@@ -6185,10 +6179,10 @@
       <c r="P49" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="86"/>
-      <c r="T49" s="82"/>
+      <c r="Q49" s="310"/>
+      <c r="R49" s="311"/>
+      <c r="S49" s="311"/>
+      <c r="T49" s="296"/>
       <c r="U49" s="8" t="s">
         <v>13</v>
       </c>
@@ -6231,40 +6225,40 @@
       <c r="AV49" s="18"/>
     </row>
     <row r="50" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="117"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="128"/>
-      <c r="R50" s="102">
+      <c r="A50" s="297" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="297" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="299"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="195"/>
+      <c r="R50" s="196">
         <v>42997</v>
       </c>
-      <c r="S50" s="102">
+      <c r="S50" s="196">
         <v>42997</v>
       </c>
-      <c r="T50" s="103">
+      <c r="T50" s="323">
         <v>2</v>
       </c>
-      <c r="U50" s="46"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="48"/>
+      <c r="U50" s="192"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="193"/>
+      <c r="X50" s="194"/>
       <c r="Y50" s="37">
         <v>1</v>
       </c>
@@ -6295,26 +6289,26 @@
       <c r="AV50" s="18"/>
     </row>
     <row r="51" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="118"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="59"/>
+      <c r="A51" s="300"/>
+      <c r="B51" s="273"/>
+      <c r="C51" s="273"/>
+      <c r="D51" s="273"/>
+      <c r="E51" s="274"/>
+      <c r="F51" s="300"/>
+      <c r="G51" s="274"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="115"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="197"/>
+      <c r="S51" s="197"/>
+      <c r="T51" s="324"/>
       <c r="U51" s="38">
         <v>4</v>
       </c>
@@ -6357,26 +6351,26 @@
       <c r="AV51" s="18"/>
     </row>
     <row r="52" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="118"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="59"/>
+      <c r="A52" s="300"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="273"/>
+      <c r="E52" s="274"/>
+      <c r="F52" s="300"/>
+      <c r="G52" s="274"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="197"/>
+      <c r="S52" s="197"/>
+      <c r="T52" s="324"/>
       <c r="U52" s="38">
         <v>11</v>
       </c>
@@ -6419,30 +6413,30 @@
       <c r="AV52" s="18"/>
     </row>
     <row r="53" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="118"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="59"/>
+      <c r="A53" s="300"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="273"/>
+      <c r="D53" s="273"/>
+      <c r="E53" s="274"/>
+      <c r="F53" s="300"/>
+      <c r="G53" s="274"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="197"/>
+      <c r="S53" s="197"/>
+      <c r="T53" s="324"/>
       <c r="U53" s="38">
         <v>18</v>
       </c>
-      <c r="V53" s="329">
+      <c r="V53" s="53">
         <v>19</v>
       </c>
       <c r="W53" s="34">
@@ -6481,26 +6475,26 @@
       <c r="AV53" s="18"/>
     </row>
     <row r="54" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="118"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="59"/>
+      <c r="A54" s="300"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="273"/>
+      <c r="D54" s="273"/>
+      <c r="E54" s="274"/>
+      <c r="F54" s="300"/>
+      <c r="G54" s="274"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="115"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="197"/>
+      <c r="S54" s="197"/>
+      <c r="T54" s="324"/>
       <c r="U54" s="38">
         <v>25</v>
       </c>
@@ -6543,32 +6537,32 @@
       <c r="AV54" s="18"/>
     </row>
     <row r="55" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="51"/>
+      <c r="A55" s="301"/>
+      <c r="B55" s="276"/>
+      <c r="C55" s="276"/>
+      <c r="D55" s="276"/>
+      <c r="E55" s="277"/>
+      <c r="F55" s="301"/>
+      <c r="G55" s="277"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="198"/>
+      <c r="S55" s="198"/>
+      <c r="T55" s="325"/>
+      <c r="U55" s="189"/>
+      <c r="V55" s="190"/>
+      <c r="W55" s="190"/>
+      <c r="X55" s="190"/>
+      <c r="Y55" s="190"/>
+      <c r="Z55" s="191"/>
       <c r="AA55" s="33"/>
       <c r="AB55" s="33"/>
       <c r="AC55" s="33"/>
@@ -6593,30 +6587,30 @@
       <c r="AV55" s="18"/>
     </row>
     <row r="56" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="161"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="137"/>
-      <c r="S56" s="140"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="48"/>
+      <c r="A56" s="285"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="255"/>
+      <c r="S56" s="258"/>
+      <c r="T56" s="261"/>
+      <c r="U56" s="192"/>
+      <c r="V56" s="193"/>
+      <c r="W56" s="193"/>
+      <c r="X56" s="194"/>
       <c r="Y56" s="37">
         <v>1</v>
       </c>
@@ -6647,26 +6641,26 @@
       <c r="AV56" s="18"/>
     </row>
     <row r="57" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="163"/>
-      <c r="B57" s="164"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="138"/>
-      <c r="S57" s="141"/>
-      <c r="T57" s="79"/>
+      <c r="A57" s="286"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="256"/>
+      <c r="S57" s="259"/>
+      <c r="T57" s="262"/>
       <c r="U57" s="38">
         <v>4</v>
       </c>
@@ -6709,26 +6703,26 @@
       <c r="AV57" s="18"/>
     </row>
     <row r="58" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="163"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="138"/>
-      <c r="S58" s="141"/>
-      <c r="T58" s="79"/>
+      <c r="A58" s="286"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="256"/>
+      <c r="S58" s="259"/>
+      <c r="T58" s="262"/>
       <c r="U58" s="38">
         <v>11</v>
       </c>
@@ -6771,26 +6765,26 @@
       <c r="AV58" s="18"/>
     </row>
     <row r="59" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="163"/>
-      <c r="B59" s="164"/>
-      <c r="C59" s="164"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="138"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="79"/>
+      <c r="A59" s="286"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="256"/>
+      <c r="S59" s="259"/>
+      <c r="T59" s="262"/>
       <c r="U59" s="38">
         <v>18</v>
       </c>
@@ -6833,26 +6827,26 @@
       <c r="AV59" s="18"/>
     </row>
     <row r="60" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="163"/>
-      <c r="B60" s="164"/>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="158"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="138"/>
-      <c r="S60" s="141"/>
-      <c r="T60" s="79"/>
+      <c r="A60" s="286"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="256"/>
+      <c r="S60" s="259"/>
+      <c r="T60" s="262"/>
       <c r="U60" s="38">
         <v>25</v>
       </c>
@@ -6895,32 +6889,32 @@
       <c r="AV60" s="18"/>
     </row>
     <row r="61" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="160"/>
-      <c r="F61" s="159"/>
-      <c r="G61" s="160"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-      <c r="P61" s="69"/>
-      <c r="Q61" s="69"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="142"/>
-      <c r="T61" s="80"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="50"/>
-      <c r="Z61" s="51"/>
+      <c r="A61" s="287"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="257"/>
+      <c r="S61" s="260"/>
+      <c r="T61" s="263"/>
+      <c r="U61" s="189"/>
+      <c r="V61" s="190"/>
+      <c r="W61" s="190"/>
+      <c r="X61" s="190"/>
+      <c r="Y61" s="190"/>
+      <c r="Z61" s="191"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
       <c r="AC61" s="33"/>
@@ -6945,30 +6939,30 @@
       <c r="AV61" s="18"/>
     </row>
     <row r="62" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="155"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="137"/>
-      <c r="S62" s="140"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
-      <c r="X62" s="48"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="255"/>
+      <c r="S62" s="258"/>
+      <c r="T62" s="261"/>
+      <c r="U62" s="192"/>
+      <c r="V62" s="193"/>
+      <c r="W62" s="193"/>
+      <c r="X62" s="194"/>
       <c r="Y62" s="37">
         <v>1</v>
       </c>
@@ -6999,26 +6993,26 @@
       <c r="AV62" s="18"/>
     </row>
     <row r="63" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="157"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="138"/>
-      <c r="S63" s="141"/>
-      <c r="T63" s="79"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="256"/>
+      <c r="S63" s="259"/>
+      <c r="T63" s="262"/>
       <c r="U63" s="38">
         <v>4</v>
       </c>
@@ -7061,26 +7055,26 @@
       <c r="AV63" s="18"/>
     </row>
     <row r="64" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="157"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="138"/>
-      <c r="S64" s="141"/>
-      <c r="T64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="256"/>
+      <c r="S64" s="259"/>
+      <c r="T64" s="262"/>
       <c r="U64" s="38">
         <v>11</v>
       </c>
@@ -7123,26 +7117,26 @@
       <c r="AV64" s="18"/>
     </row>
     <row r="65" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="157"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="138"/>
-      <c r="S65" s="141"/>
-      <c r="T65" s="79"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="256"/>
+      <c r="S65" s="259"/>
+      <c r="T65" s="262"/>
       <c r="U65" s="38">
         <v>18</v>
       </c>
@@ -7185,26 +7179,26 @@
       <c r="AV65" s="18"/>
     </row>
     <row r="66" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="157"/>
-      <c r="B66" s="164"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="138"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="79"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="256"/>
+      <c r="S66" s="259"/>
+      <c r="T66" s="262"/>
       <c r="U66" s="38">
         <v>25</v>
       </c>
@@ -7247,32 +7241,32 @@
       <c r="AV66" s="18"/>
     </row>
     <row r="67" spans="1:54" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="159"/>
-      <c r="B67" s="166"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="166"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="69"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="139"/>
-      <c r="S67" s="142"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50"/>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="51"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="257"/>
+      <c r="S67" s="260"/>
+      <c r="T67" s="263"/>
+      <c r="U67" s="189"/>
+      <c r="V67" s="190"/>
+      <c r="W67" s="190"/>
+      <c r="X67" s="190"/>
+      <c r="Y67" s="190"/>
+      <c r="Z67" s="191"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
       <c r="AC67" s="33"/>
@@ -7297,30 +7291,30 @@
       <c r="AV67" s="18"/>
     </row>
     <row r="68" spans="1:54" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="148"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="58"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="48"/>
+      <c r="A68" s="269"/>
+      <c r="B68" s="270"/>
+      <c r="C68" s="270"/>
+      <c r="D68" s="270"/>
+      <c r="E68" s="271"/>
+      <c r="F68" s="278"/>
+      <c r="G68" s="279"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="284"/>
+      <c r="J68" s="284"/>
+      <c r="K68" s="284"/>
+      <c r="L68" s="284"/>
+      <c r="M68" s="284"/>
+      <c r="N68" s="284"/>
+      <c r="O68" s="284"/>
+      <c r="P68" s="284"/>
+      <c r="Q68" s="85"/>
+      <c r="R68" s="330"/>
+      <c r="S68" s="330"/>
+      <c r="T68" s="326"/>
+      <c r="U68" s="192"/>
+      <c r="V68" s="193"/>
+      <c r="W68" s="193"/>
+      <c r="X68" s="194"/>
       <c r="Y68" s="37">
         <v>1</v>
       </c>
@@ -7351,26 +7345,26 @@
       <c r="AV68" s="28"/>
     </row>
     <row r="69" spans="1:54" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="151"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="59"/>
+      <c r="A69" s="272"/>
+      <c r="B69" s="273"/>
+      <c r="C69" s="273"/>
+      <c r="D69" s="273"/>
+      <c r="E69" s="274"/>
+      <c r="F69" s="280"/>
+      <c r="G69" s="281"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="197"/>
+      <c r="S69" s="197"/>
+      <c r="T69" s="324"/>
       <c r="U69" s="38">
         <v>4</v>
       </c>
@@ -7413,26 +7407,26 @@
       <c r="AV69" s="28"/>
     </row>
     <row r="70" spans="1:54" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="151"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="119"/>
-      <c r="E70" s="120"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="59"/>
+      <c r="A70" s="272"/>
+      <c r="B70" s="273"/>
+      <c r="C70" s="273"/>
+      <c r="D70" s="273"/>
+      <c r="E70" s="274"/>
+      <c r="F70" s="280"/>
+      <c r="G70" s="281"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="115"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="115"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="115"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="197"/>
+      <c r="S70" s="197"/>
+      <c r="T70" s="324"/>
       <c r="U70" s="38">
         <v>11</v>
       </c>
@@ -7475,26 +7469,26 @@
       <c r="AV70" s="28"/>
     </row>
     <row r="71" spans="1:54" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="151"/>
-      <c r="B71" s="119"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="119"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="59"/>
+      <c r="A71" s="272"/>
+      <c r="B71" s="273"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="273"/>
+      <c r="E71" s="274"/>
+      <c r="F71" s="280"/>
+      <c r="G71" s="281"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="115"/>
+      <c r="M71" s="115"/>
+      <c r="N71" s="115"/>
+      <c r="O71" s="115"/>
+      <c r="P71" s="115"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="197"/>
+      <c r="S71" s="197"/>
+      <c r="T71" s="324"/>
       <c r="U71" s="38">
         <v>18</v>
       </c>
@@ -7537,26 +7531,26 @@
       <c r="AV71" s="28"/>
     </row>
     <row r="72" spans="1:54" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="151"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="119"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="59"/>
+      <c r="A72" s="272"/>
+      <c r="B72" s="273"/>
+      <c r="C72" s="273"/>
+      <c r="D72" s="273"/>
+      <c r="E72" s="274"/>
+      <c r="F72" s="280"/>
+      <c r="G72" s="281"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="115"/>
+      <c r="O72" s="115"/>
+      <c r="P72" s="115"/>
+      <c r="Q72" s="86"/>
+      <c r="R72" s="197"/>
+      <c r="S72" s="197"/>
+      <c r="T72" s="324"/>
       <c r="U72" s="38">
         <v>25</v>
       </c>
@@ -7599,32 +7593,32 @@
       <c r="AV72" s="28"/>
     </row>
     <row r="73" spans="1:54" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="152"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="49"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="51"/>
+      <c r="A73" s="275"/>
+      <c r="B73" s="276"/>
+      <c r="C73" s="276"/>
+      <c r="D73" s="276"/>
+      <c r="E73" s="277"/>
+      <c r="F73" s="282"/>
+      <c r="G73" s="283"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="198"/>
+      <c r="S73" s="198"/>
+      <c r="T73" s="325"/>
+      <c r="U73" s="189"/>
+      <c r="V73" s="190"/>
+      <c r="W73" s="190"/>
+      <c r="X73" s="190"/>
+      <c r="Y73" s="190"/>
+      <c r="Z73" s="191"/>
       <c r="AA73" s="33"/>
       <c r="AB73" s="33"/>
       <c r="AC73" s="33"/>
@@ -7649,36 +7643,36 @@
       <c r="AV73" s="28"/>
     </row>
     <row r="74" spans="1:54" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="143"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="143"/>
-      <c r="D74" s="143"/>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="144"/>
-      <c r="J74" s="145" t="s">
+      <c r="A74" s="264"/>
+      <c r="B74" s="264"/>
+      <c r="C74" s="264"/>
+      <c r="D74" s="264"/>
+      <c r="E74" s="264"/>
+      <c r="F74" s="264"/>
+      <c r="G74" s="264"/>
+      <c r="H74" s="264"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="266" t="s">
         <v>34</v>
       </c>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="146"/>
-      <c r="N74" s="146"/>
-      <c r="O74" s="146"/>
-      <c r="P74" s="146"/>
-      <c r="Q74" s="146"/>
-      <c r="R74" s="147"/>
+      <c r="K74" s="267"/>
+      <c r="L74" s="267"/>
+      <c r="M74" s="267"/>
+      <c r="N74" s="267"/>
+      <c r="O74" s="267"/>
+      <c r="P74" s="267"/>
+      <c r="Q74" s="267"/>
+      <c r="R74" s="268"/>
       <c r="T74" s="42">
         <f>(S46+T50)</f>
-        <v>160</v>
-      </c>
-      <c r="U74" s="250"/>
-      <c r="V74" s="251"/>
-      <c r="W74" s="251"/>
-      <c r="X74" s="251"/>
-      <c r="Y74" s="251"/>
-      <c r="Z74" s="251"/>
+        <v>156</v>
+      </c>
+      <c r="U74" s="73"/>
+      <c r="V74" s="74"/>
+      <c r="W74" s="74"/>
+      <c r="X74" s="74"/>
+      <c r="Y74" s="74"/>
+      <c r="Z74" s="74"/>
       <c r="AA74" s="33"/>
       <c r="AB74" s="33"/>
       <c r="AC74" s="33"/>
@@ -33481,6 +33475,209 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="227">
+    <mergeCell ref="U62:X62"/>
+    <mergeCell ref="U67:Z67"/>
+    <mergeCell ref="U68:X68"/>
+    <mergeCell ref="U73:Z73"/>
+    <mergeCell ref="U42:Z42"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U55:Z55"/>
+    <mergeCell ref="H44:Z44"/>
+    <mergeCell ref="S68:S73"/>
+    <mergeCell ref="T68:T73"/>
+    <mergeCell ref="N68:N73"/>
+    <mergeCell ref="R68:R73"/>
+    <mergeCell ref="Q68:Q73"/>
+    <mergeCell ref="P68:P73"/>
+    <mergeCell ref="O68:O73"/>
+    <mergeCell ref="Q56:Q61"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U24:Z24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U30:Z30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U36:Z36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U61:Z61"/>
+    <mergeCell ref="H43:Z43"/>
+    <mergeCell ref="U48:Z48"/>
+    <mergeCell ref="T31:T36"/>
+    <mergeCell ref="S50:S55"/>
+    <mergeCell ref="T50:T55"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="O50:O55"/>
+    <mergeCell ref="P50:P55"/>
+    <mergeCell ref="S37:S42"/>
+    <mergeCell ref="T37:T42"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="H25:I30"/>
+    <mergeCell ref="T25:T30"/>
+    <mergeCell ref="S25:S30"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="A47:Y47"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="S31:S36"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A50:E55"/>
+    <mergeCell ref="L50:L55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="F50:G55"/>
+    <mergeCell ref="H50:H55"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="A43:G44"/>
+    <mergeCell ref="R56:R61"/>
+    <mergeCell ref="S56:S61"/>
+    <mergeCell ref="T56:T61"/>
+    <mergeCell ref="P56:P61"/>
+    <mergeCell ref="O62:O67"/>
+    <mergeCell ref="P62:P67"/>
+    <mergeCell ref="O56:O61"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="J74:R74"/>
+    <mergeCell ref="A68:E73"/>
+    <mergeCell ref="F68:G73"/>
+    <mergeCell ref="I68:I73"/>
+    <mergeCell ref="J68:J73"/>
+    <mergeCell ref="K68:K73"/>
+    <mergeCell ref="M68:M73"/>
+    <mergeCell ref="L68:L73"/>
+    <mergeCell ref="H68:H73"/>
+    <mergeCell ref="F56:G61"/>
+    <mergeCell ref="A56:E61"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="S62:S67"/>
+    <mergeCell ref="T62:T67"/>
+    <mergeCell ref="A48:E49"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="Q19:Q24"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E3:G7"/>
+    <mergeCell ref="H13:I18"/>
+    <mergeCell ref="H7:Z7"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="Q3:X3"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="Q6:X6"/>
+    <mergeCell ref="E2:Z2"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H6:P6"/>
+    <mergeCell ref="Y4:Z6"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="U10:Z11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="R13:R18"/>
+    <mergeCell ref="S13:S18"/>
+    <mergeCell ref="T13:T18"/>
+    <mergeCell ref="U18:Z18"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="R25:R30"/>
+    <mergeCell ref="Q25:Q30"/>
+    <mergeCell ref="P25:P30"/>
+    <mergeCell ref="O25:O30"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="P19:P24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="H19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="Q13:Q18"/>
+    <mergeCell ref="P13:P18"/>
+    <mergeCell ref="O13:O18"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="H37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="R37:R42"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="P37:P42"/>
+    <mergeCell ref="S19:S24"/>
+    <mergeCell ref="T19:T24"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="N31:N36"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="Q31:Q36"/>
+    <mergeCell ref="R31:R36"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="Q62:Q67"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="H31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="J50:J55"/>
+    <mergeCell ref="K50:K55"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="O37:O42"/>
+    <mergeCell ref="Q37:Q42"/>
+    <mergeCell ref="L13:L18"/>
     <mergeCell ref="AA25:AD30"/>
     <mergeCell ref="AA31:AD36"/>
     <mergeCell ref="AA37:AD42"/>
@@ -33505,209 +33702,6 @@
     <mergeCell ref="M13:M18"/>
     <mergeCell ref="N13:N18"/>
     <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="Q62:Q67"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="H31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="J50:J55"/>
-    <mergeCell ref="K50:K55"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="O37:O42"/>
-    <mergeCell ref="Q37:Q42"/>
-    <mergeCell ref="R37:R42"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="P37:P42"/>
-    <mergeCell ref="S19:S24"/>
-    <mergeCell ref="T19:T24"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="N31:N36"/>
-    <mergeCell ref="O31:O36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="Q31:Q36"/>
-    <mergeCell ref="R31:R36"/>
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="H37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="R25:R30"/>
-    <mergeCell ref="Q25:Q30"/>
-    <mergeCell ref="P25:P30"/>
-    <mergeCell ref="O25:O30"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="P19:P24"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="H19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="Q13:Q18"/>
-    <mergeCell ref="P13:P18"/>
-    <mergeCell ref="O13:O18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H6:P6"/>
-    <mergeCell ref="Y4:Z6"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="U10:Z11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="R13:R18"/>
-    <mergeCell ref="S13:S18"/>
-    <mergeCell ref="T13:T18"/>
-    <mergeCell ref="U18:Z18"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="Q19:Q24"/>
-    <mergeCell ref="Q50:Q55"/>
-    <mergeCell ref="R50:R55"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E3:G7"/>
-    <mergeCell ref="H13:I18"/>
-    <mergeCell ref="H7:Z7"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="Q6:X6"/>
-    <mergeCell ref="E2:Z2"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A43:G44"/>
-    <mergeCell ref="R56:R61"/>
-    <mergeCell ref="S56:S61"/>
-    <mergeCell ref="T56:T61"/>
-    <mergeCell ref="P56:P61"/>
-    <mergeCell ref="O62:O67"/>
-    <mergeCell ref="P62:P67"/>
-    <mergeCell ref="O56:O61"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="J74:R74"/>
-    <mergeCell ref="A68:E73"/>
-    <mergeCell ref="F68:G73"/>
-    <mergeCell ref="I68:I73"/>
-    <mergeCell ref="J68:J73"/>
-    <mergeCell ref="K68:K73"/>
-    <mergeCell ref="M68:M73"/>
-    <mergeCell ref="L68:L73"/>
-    <mergeCell ref="H68:H73"/>
-    <mergeCell ref="F56:G61"/>
-    <mergeCell ref="A56:E61"/>
-    <mergeCell ref="R62:R67"/>
-    <mergeCell ref="S62:S67"/>
-    <mergeCell ref="T62:T67"/>
-    <mergeCell ref="A48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A50:E55"/>
-    <mergeCell ref="L50:L55"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="F50:G55"/>
-    <mergeCell ref="H50:H55"/>
-    <mergeCell ref="I50:I55"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="H25:I30"/>
-    <mergeCell ref="T25:T30"/>
-    <mergeCell ref="S25:S30"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="A47:Y47"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="S31:S36"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="U24:Z24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U30:Z30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U36:Z36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U61:Z61"/>
-    <mergeCell ref="H43:Z43"/>
-    <mergeCell ref="U48:Z48"/>
-    <mergeCell ref="T31:T36"/>
-    <mergeCell ref="S50:S55"/>
-    <mergeCell ref="T50:T55"/>
-    <mergeCell ref="N50:N55"/>
-    <mergeCell ref="O50:O55"/>
-    <mergeCell ref="P50:P55"/>
-    <mergeCell ref="S37:S42"/>
-    <mergeCell ref="T37:T42"/>
-    <mergeCell ref="U62:X62"/>
-    <mergeCell ref="U67:Z67"/>
-    <mergeCell ref="U68:X68"/>
-    <mergeCell ref="U73:Z73"/>
-    <mergeCell ref="U42:Z42"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U55:Z55"/>
-    <mergeCell ref="H44:Z44"/>
-    <mergeCell ref="S68:S73"/>
-    <mergeCell ref="T68:T73"/>
-    <mergeCell ref="N68:N73"/>
-    <mergeCell ref="R68:R73"/>
-    <mergeCell ref="Q68:Q73"/>
-    <mergeCell ref="P68:P73"/>
-    <mergeCell ref="O68:O73"/>
-    <mergeCell ref="Q56:Q61"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q50:Q56 Q68:Q73">

--- a/RMI/RMI/media/Reporte/Eventos_Septiembre_-_Barajas.xlsx
+++ b/RMI/RMI/media/Reporte/Eventos_Septiembre_-_Barajas.xlsx
@@ -37,7 +37,7 @@
     <author>Erick</author>
   </authors>
   <commentList>
-    <comment ref="X27" authorId="0" shapeId="0">
+    <comment ref="V14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,19 +45,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Compartido con el profe Arias</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Solo se suben dos horas por cruce con proceso de selección</t>
         </r>
       </text>
     </comment>
@@ -484,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -741,6 +731,13 @@
       <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1864,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2205,6 +2202,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2246,45 +2264,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2580,45 +2559,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2682,6 +2622,51 @@
     <xf numFmtId="20" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2706,33 +2691,6 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2747,6 +2705,9 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2772,6 +2733,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2800,6 +2788,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2810,6 +2807,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3241,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BC1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:S30"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3276,36 +3276,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="241" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
       <c r="AA2" s="33"/>
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
@@ -3330,40 +3330,40 @@
       <c r="AV2" s="18"/>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="232"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="208" t="s">
+      <c r="A3" s="226"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="166" t="s">
+      <c r="F3" s="203"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="166" t="s">
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="166" t="s">
+      <c r="R3" s="161"/>
+      <c r="S3" s="161"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="168"/>
+      <c r="Z3" s="162"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
@@ -3388,38 +3388,38 @@
       <c r="AV3" s="18"/>
     </row>
     <row r="4" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="232"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="169" t="s">
+      <c r="A4" s="226"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="235" t="s">
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="236"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="236"/>
-      <c r="W4" s="236"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="172" t="s">
+      <c r="R4" s="230"/>
+      <c r="S4" s="230"/>
+      <c r="T4" s="230"/>
+      <c r="U4" s="230"/>
+      <c r="V4" s="230"/>
+      <c r="W4" s="230"/>
+      <c r="X4" s="231"/>
+      <c r="Y4" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="173"/>
+      <c r="Z4" s="167"/>
       <c r="AA4" s="33"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
@@ -3444,38 +3444,38 @@
       <c r="AV4" s="18"/>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="232"/>
-      <c r="B5" s="199" t="s">
+      <c r="A5" s="226"/>
+      <c r="B5" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="166" t="s">
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="238" t="s">
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="240"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="175"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233"/>
+      <c r="W5" s="233"/>
+      <c r="X5" s="234"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="169"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
       <c r="AC5" s="33"/>
@@ -3500,36 +3500,36 @@
       <c r="AV5" s="18"/>
     </row>
     <row r="6" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="232"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="169">
+      <c r="A6" s="226"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="163">
         <v>6663014</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="169">
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="163">
         <v>3102820494</v>
       </c>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="177"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="171"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="33"/>
@@ -3554,32 +3554,32 @@
       <c r="AV6" s="18"/>
     </row>
     <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="232"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="219"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="213"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
@@ -3654,34 +3654,34 @@
       <c r="AV8" s="18"/>
     </row>
     <row r="9" spans="1:48" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="228" t="s">
+      <c r="A9" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="229"/>
-      <c r="L9" s="229"/>
-      <c r="M9" s="229"/>
-      <c r="N9" s="229"/>
-      <c r="O9" s="229"/>
-      <c r="P9" s="229"/>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="229"/>
-      <c r="S9" s="229"/>
-      <c r="T9" s="229"/>
-      <c r="U9" s="229"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="229"/>
-      <c r="X9" s="229"/>
-      <c r="Y9" s="229"/>
-      <c r="Z9" s="230"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="223"/>
+      <c r="Q9" s="223"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="223"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="223"/>
+      <c r="V9" s="223"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="224"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
       <c r="AC9" s="33"/>
@@ -3706,60 +3706,60 @@
       <c r="AV9" s="18"/>
     </row>
     <row r="10" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="246" t="s">
+      <c r="E10" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="220" t="s">
+      <c r="H10" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="221"/>
-      <c r="J10" s="233" t="s">
+      <c r="I10" s="215"/>
+      <c r="J10" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="226" t="s">
+      <c r="Q10" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="224" t="s">
+      <c r="R10" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="224" t="s">
+      <c r="S10" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="184" t="s">
+      <c r="T10" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="178" t="s">
+      <c r="U10" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="180"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="174"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
       <c r="AC10" s="33"/>
@@ -3784,15 +3784,15 @@
       <c r="AV10" s="18"/>
     </row>
     <row r="11" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="245"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="223"/>
+      <c r="A11" s="239"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="217"/>
       <c r="J11" s="9" t="s">
         <v>13</v>
       </c>
@@ -3814,16 +3814,16 @@
       <c r="P11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="227"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="225"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="183"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="219"/>
+      <c r="S11" s="219"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="177"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
@@ -3928,10 +3928,10 @@
       <c r="F13" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="248" t="s">
+      <c r="G13" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="129">
         <v>30</v>
       </c>
       <c r="I13" s="110"/>
@@ -3946,24 +3946,24 @@
       <c r="N13" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
       <c r="Q13" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="126">
+      <c r="R13" s="133">
         <v>12</v>
       </c>
-      <c r="S13" s="126">
-        <v>24</v>
-      </c>
-      <c r="T13" s="186">
-        <v>36</v>
-      </c>
-      <c r="U13" s="192"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="194"/>
+      <c r="S13" s="133">
+        <v>20</v>
+      </c>
+      <c r="T13" s="180">
+        <v>32</v>
+      </c>
+      <c r="U13" s="186"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="188"/>
       <c r="Y13" s="43">
         <v>1</v>
       </c>
@@ -4000,24 +4000,24 @@
       <c r="D14" s="92"/>
       <c r="E14" s="124"/>
       <c r="F14" s="92"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="150"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="112"/>
       <c r="J14" s="92"/>
       <c r="K14" s="92"/>
       <c r="L14" s="92"/>
       <c r="M14" s="92"/>
       <c r="N14" s="92"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
       <c r="Q14" s="92"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="187"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="181"/>
       <c r="U14" s="38">
         <v>4</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="47">
         <v>5</v>
       </c>
       <c r="W14" s="44">
@@ -4062,20 +4062,20 @@
       <c r="D15" s="92"/>
       <c r="E15" s="124"/>
       <c r="F15" s="92"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="150"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="130"/>
       <c r="I15" s="112"/>
       <c r="J15" s="92"/>
       <c r="K15" s="92"/>
       <c r="L15" s="92"/>
       <c r="M15" s="92"/>
       <c r="N15" s="92"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
       <c r="Q15" s="92"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="187"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="181"/>
       <c r="U15" s="38">
         <v>11</v>
       </c>
@@ -4124,20 +4124,20 @@
       <c r="D16" s="92"/>
       <c r="E16" s="124"/>
       <c r="F16" s="92"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="150"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="130"/>
       <c r="I16" s="112"/>
       <c r="J16" s="92"/>
       <c r="K16" s="92"/>
       <c r="L16" s="92"/>
       <c r="M16" s="92"/>
       <c r="N16" s="92"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
       <c r="Q16" s="92"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="187"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="181"/>
       <c r="U16" s="38">
         <v>18</v>
       </c>
@@ -4186,20 +4186,20 @@
       <c r="D17" s="92"/>
       <c r="E17" s="124"/>
       <c r="F17" s="92"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="150"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="130"/>
       <c r="I17" s="112"/>
       <c r="J17" s="92"/>
       <c r="K17" s="92"/>
       <c r="L17" s="92"/>
       <c r="M17" s="92"/>
       <c r="N17" s="92"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
       <c r="Q17" s="92"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="187"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="181"/>
       <c r="U17" s="38">
         <v>25</v>
       </c>
@@ -4248,26 +4248,26 @@
       <c r="D18" s="93"/>
       <c r="E18" s="125"/>
       <c r="F18" s="93"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="152"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
       <c r="M18" s="93"/>
       <c r="N18" s="93"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
       <c r="Q18" s="93"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="189"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="191"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+      <c r="Y18" s="184"/>
+      <c r="Z18" s="185"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
       <c r="AC18" s="33"/>
@@ -4313,7 +4313,7 @@
       <c r="G19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="149">
+      <c r="H19" s="129">
         <v>30</v>
       </c>
       <c r="I19" s="110"/>
@@ -4335,17 +4335,17 @@
       <c r="Q19" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="137"/>
-      <c r="S19" s="131">
+      <c r="R19" s="144"/>
+      <c r="S19" s="138">
         <v>78</v>
       </c>
-      <c r="T19" s="134">
+      <c r="T19" s="141">
         <v>78</v>
       </c>
-      <c r="U19" s="192"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="194"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="188"/>
       <c r="Y19" s="37">
         <v>1</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="E20" s="124"/>
       <c r="F20" s="92"/>
       <c r="G20" s="92"/>
-      <c r="H20" s="150"/>
+      <c r="H20" s="130"/>
       <c r="I20" s="112"/>
       <c r="J20" s="107"/>
       <c r="K20" s="92"/>
@@ -4393,9 +4393,9 @@
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
       <c r="Q20" s="92"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="142"/>
       <c r="U20" s="38">
         <v>4</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="E21" s="124"/>
       <c r="F21" s="92"/>
       <c r="G21" s="92"/>
-      <c r="H21" s="150"/>
+      <c r="H21" s="130"/>
       <c r="I21" s="112"/>
       <c r="J21" s="107"/>
       <c r="K21" s="92"/>
@@ -4455,9 +4455,9 @@
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
       <c r="Q21" s="92"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="135"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="142"/>
       <c r="U21" s="38">
         <v>11</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="E22" s="124"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92"/>
-      <c r="H22" s="150"/>
+      <c r="H22" s="130"/>
       <c r="I22" s="112"/>
       <c r="J22" s="107"/>
       <c r="K22" s="92"/>
@@ -4517,9 +4517,9 @@
       <c r="O22" s="107"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="92"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="135"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="142"/>
       <c r="U22" s="38">
         <v>18</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="E23" s="124"/>
       <c r="F23" s="92"/>
       <c r="G23" s="92"/>
-      <c r="H23" s="150"/>
+      <c r="H23" s="130"/>
       <c r="I23" s="112"/>
       <c r="J23" s="107"/>
       <c r="K23" s="92"/>
@@ -4579,9 +4579,9 @@
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
       <c r="Q23" s="92"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="135"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="142"/>
       <c r="U23" s="38">
         <v>25</v>
       </c>
@@ -4631,8 +4631,8 @@
       <c r="E24" s="125"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="108"/>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
@@ -4641,15 +4641,15 @@
       <c r="O24" s="108"/>
       <c r="P24" s="108"/>
       <c r="Q24" s="93"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="136"/>
-      <c r="U24" s="189"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="191"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="185"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
       <c r="AC24" s="33"/>
@@ -4674,7 +4674,7 @@
       <c r="AV24" s="18"/>
     </row>
     <row r="25" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="302">
+      <c r="A25" s="289">
         <v>1167021</v>
       </c>
       <c r="B25" s="100" t="s">
@@ -4689,7 +4689,7 @@
       <c r="E25" s="94">
         <v>52</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="136" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="97" t="s">
@@ -4714,16 +4714,16 @@
         <v>62</v>
       </c>
       <c r="R25" s="97"/>
-      <c r="S25" s="309">
+      <c r="S25" s="296">
         <v>5</v>
       </c>
-      <c r="T25" s="306">
+      <c r="T25" s="293">
         <v>5</v>
       </c>
-      <c r="U25" s="192"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="194"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="188"/>
       <c r="Y25" s="37">
         <v>1</v>
       </c>
@@ -4755,13 +4755,13 @@
       <c r="AU25" s="33"/>
       <c r="AV25" s="18"/>
     </row>
-    <row r="26" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="303"/>
+    <row r="26" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="290"/>
       <c r="B26" s="98"/>
       <c r="C26" s="101"/>
       <c r="D26" s="98"/>
       <c r="E26" s="95"/>
-      <c r="F26" s="130"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="98"/>
       <c r="H26" s="111"/>
       <c r="I26" s="112"/>
@@ -4775,7 +4775,7 @@
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
       <c r="S26" s="95"/>
-      <c r="T26" s="307"/>
+      <c r="T26" s="294"/>
       <c r="U26" s="38">
         <v>4</v>
       </c>
@@ -4817,13 +4817,13 @@
       <c r="AU26" s="33"/>
       <c r="AV26" s="18"/>
     </row>
-    <row r="27" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="303"/>
+    <row r="27" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="290"/>
       <c r="B27" s="98"/>
       <c r="C27" s="101"/>
       <c r="D27" s="98"/>
       <c r="E27" s="95"/>
-      <c r="F27" s="130"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="98"/>
       <c r="H27" s="111"/>
       <c r="I27" s="112"/>
@@ -4837,7 +4837,7 @@
       <c r="Q27" s="98"/>
       <c r="R27" s="98"/>
       <c r="S27" s="95"/>
-      <c r="T27" s="307"/>
+      <c r="T27" s="294"/>
       <c r="U27" s="38">
         <v>11</v>
       </c>
@@ -4879,13 +4879,13 @@
       <c r="AU27" s="33"/>
       <c r="AV27" s="18"/>
     </row>
-    <row r="28" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="303"/>
+    <row r="28" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="290"/>
       <c r="B28" s="98"/>
       <c r="C28" s="101"/>
       <c r="D28" s="98"/>
       <c r="E28" s="95"/>
-      <c r="F28" s="130"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="98"/>
       <c r="H28" s="111"/>
       <c r="I28" s="112"/>
@@ -4899,7 +4899,7 @@
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
       <c r="S28" s="95"/>
-      <c r="T28" s="307"/>
+      <c r="T28" s="294"/>
       <c r="U28" s="38">
         <v>18</v>
       </c>
@@ -4941,13 +4941,13 @@
       <c r="AU28" s="33"/>
       <c r="AV28" s="18"/>
     </row>
-    <row r="29" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="303"/>
+    <row r="29" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="290"/>
       <c r="B29" s="98"/>
       <c r="C29" s="101"/>
       <c r="D29" s="98"/>
       <c r="E29" s="95"/>
-      <c r="F29" s="130"/>
+      <c r="F29" s="137"/>
       <c r="G29" s="98"/>
       <c r="H29" s="111"/>
       <c r="I29" s="112"/>
@@ -4961,7 +4961,7 @@
       <c r="Q29" s="98"/>
       <c r="R29" s="98"/>
       <c r="S29" s="95"/>
-      <c r="T29" s="307"/>
+      <c r="T29" s="294"/>
       <c r="U29" s="38">
         <v>25</v>
       </c>
@@ -5003,16 +5003,16 @@
       <c r="AU29" s="33"/>
       <c r="AV29" s="18"/>
     </row>
-    <row r="30" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="304"/>
+    <row r="30" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="291"/>
       <c r="B30" s="99"/>
       <c r="C30" s="102"/>
       <c r="D30" s="99"/>
       <c r="E30" s="96"/>
-      <c r="F30" s="162"/>
+      <c r="F30" s="156"/>
       <c r="G30" s="99"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="152"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="132"/>
       <c r="J30" s="99"/>
       <c r="K30" s="99"/>
       <c r="L30" s="99"/>
@@ -5023,13 +5023,13 @@
       <c r="Q30" s="99"/>
       <c r="R30" s="99"/>
       <c r="S30" s="96"/>
-      <c r="T30" s="308"/>
-      <c r="U30" s="189"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="191"/>
+      <c r="T30" s="295"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="185"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="62"/>
       <c r="AC30" s="62"/>
@@ -5054,7 +5054,7 @@
       <c r="AV30" s="18"/>
     </row>
     <row r="31" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="302">
+      <c r="A31" s="289">
         <v>1167021</v>
       </c>
       <c r="B31" s="100" t="s">
@@ -5069,7 +5069,7 @@
       <c r="E31" s="94">
         <v>52</v>
       </c>
-      <c r="F31" s="129" t="s">
+      <c r="F31" s="136" t="s">
         <v>60</v>
       </c>
       <c r="G31" s="97" t="s">
@@ -5092,16 +5092,16 @@
         <v>62</v>
       </c>
       <c r="R31" s="97"/>
-      <c r="S31" s="309">
+      <c r="S31" s="296">
+        <v>18</v>
+      </c>
+      <c r="T31" s="293">
         <v>24</v>
       </c>
-      <c r="T31" s="306">
-        <v>24</v>
-      </c>
-      <c r="U31" s="192"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="194"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="188"/>
       <c r="Y31" s="37">
         <v>1</v>
       </c>
@@ -5134,12 +5134,12 @@
       <c r="AV31" s="18"/>
     </row>
     <row r="32" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="303"/>
+      <c r="A32" s="290"/>
       <c r="B32" s="98"/>
       <c r="C32" s="101"/>
       <c r="D32" s="98"/>
       <c r="E32" s="95"/>
-      <c r="F32" s="130"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="98"/>
       <c r="H32" s="111"/>
       <c r="I32" s="112"/>
@@ -5153,7 +5153,7 @@
       <c r="Q32" s="98"/>
       <c r="R32" s="98"/>
       <c r="S32" s="95"/>
-      <c r="T32" s="307"/>
+      <c r="T32" s="294"/>
       <c r="U32" s="38">
         <v>4</v>
       </c>
@@ -5196,12 +5196,12 @@
       <c r="AV32" s="18"/>
     </row>
     <row r="33" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="303"/>
+      <c r="A33" s="290"/>
       <c r="B33" s="98"/>
       <c r="C33" s="101"/>
       <c r="D33" s="98"/>
       <c r="E33" s="95"/>
-      <c r="F33" s="130"/>
+      <c r="F33" s="137"/>
       <c r="G33" s="98"/>
       <c r="H33" s="111"/>
       <c r="I33" s="112"/>
@@ -5215,7 +5215,7 @@
       <c r="Q33" s="98"/>
       <c r="R33" s="98"/>
       <c r="S33" s="95"/>
-      <c r="T33" s="307"/>
+      <c r="T33" s="294"/>
       <c r="U33" s="38">
         <v>11</v>
       </c>
@@ -5258,12 +5258,12 @@
       <c r="AV33" s="18"/>
     </row>
     <row r="34" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="303"/>
+      <c r="A34" s="290"/>
       <c r="B34" s="98"/>
       <c r="C34" s="101"/>
       <c r="D34" s="98"/>
       <c r="E34" s="95"/>
-      <c r="F34" s="130"/>
+      <c r="F34" s="137"/>
       <c r="G34" s="98"/>
       <c r="H34" s="111"/>
       <c r="I34" s="112"/>
@@ -5277,7 +5277,7 @@
       <c r="Q34" s="98"/>
       <c r="R34" s="98"/>
       <c r="S34" s="95"/>
-      <c r="T34" s="307"/>
+      <c r="T34" s="294"/>
       <c r="U34" s="38">
         <v>18</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="Y34" s="34">
         <v>22</v>
       </c>
-      <c r="Z34" s="50">
+      <c r="Z34" s="331">
         <v>23</v>
       </c>
       <c r="AA34" s="58"/>
@@ -5320,12 +5320,12 @@
       <c r="AV34" s="18"/>
     </row>
     <row r="35" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="303"/>
+      <c r="A35" s="290"/>
       <c r="B35" s="98"/>
       <c r="C35" s="101"/>
       <c r="D35" s="98"/>
       <c r="E35" s="95"/>
-      <c r="F35" s="130"/>
+      <c r="F35" s="137"/>
       <c r="G35" s="98"/>
       <c r="H35" s="111"/>
       <c r="I35" s="112"/>
@@ -5339,7 +5339,7 @@
       <c r="Q35" s="98"/>
       <c r="R35" s="98"/>
       <c r="S35" s="95"/>
-      <c r="T35" s="307"/>
+      <c r="T35" s="294"/>
       <c r="U35" s="38">
         <v>25</v>
       </c>
@@ -5382,12 +5382,12 @@
       <c r="AV35" s="18"/>
     </row>
     <row r="36" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="303"/>
+      <c r="A36" s="290"/>
       <c r="B36" s="98"/>
       <c r="C36" s="101"/>
       <c r="D36" s="98"/>
       <c r="E36" s="95"/>
-      <c r="F36" s="130"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="98"/>
       <c r="H36" s="111"/>
       <c r="I36" s="112"/>
@@ -5401,13 +5401,13 @@
       <c r="Q36" s="98"/>
       <c r="R36" s="98"/>
       <c r="S36" s="95"/>
-      <c r="T36" s="307"/>
-      <c r="U36" s="189"/>
-      <c r="V36" s="190"/>
-      <c r="W36" s="190"/>
-      <c r="X36" s="190"/>
-      <c r="Y36" s="190"/>
-      <c r="Z36" s="191"/>
+      <c r="T36" s="294"/>
+      <c r="U36" s="183"/>
+      <c r="V36" s="184"/>
+      <c r="W36" s="184"/>
+      <c r="X36" s="184"/>
+      <c r="Y36" s="184"/>
+      <c r="Z36" s="185"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="62"/>
       <c r="AC36" s="62"/>
@@ -5432,7 +5432,7 @@
       <c r="AV36" s="18"/>
     </row>
     <row r="37" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="140">
+      <c r="A37" s="309">
         <v>1441204</v>
       </c>
       <c r="B37" s="103" t="s">
@@ -5444,16 +5444,16 @@
       <c r="D37" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="143">
+      <c r="E37" s="312">
         <v>142.5</v>
       </c>
-      <c r="F37" s="143" t="s">
+      <c r="F37" s="312" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="146" t="s">
+      <c r="G37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="149">
+      <c r="H37" s="129">
         <v>15</v>
       </c>
       <c r="I37" s="110"/>
@@ -5475,19 +5475,19 @@
       <c r="Q37" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="R37" s="126">
+      <c r="R37" s="133">
         <v>119.25</v>
       </c>
-      <c r="S37" s="126">
+      <c r="S37" s="133">
         <v>23</v>
       </c>
-      <c r="T37" s="326">
+      <c r="T37" s="323">
         <v>143.25</v>
       </c>
-      <c r="U37" s="192"/>
-      <c r="V37" s="193"/>
-      <c r="W37" s="193"/>
-      <c r="X37" s="194"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="187"/>
+      <c r="X37" s="188"/>
       <c r="Y37" s="52">
         <v>1</v>
       </c>
@@ -5520,14 +5520,14 @@
       <c r="AV37" s="18"/>
     </row>
     <row r="38" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="141"/>
+      <c r="A38" s="310"/>
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="150"/>
+      <c r="E38" s="313"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="130"/>
       <c r="I38" s="112"/>
       <c r="J38" s="121"/>
       <c r="K38" s="118"/>
@@ -5537,9 +5537,9 @@
       <c r="O38" s="121"/>
       <c r="P38" s="121"/>
       <c r="Q38" s="124"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="324"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="321"/>
       <c r="U38" s="38">
         <v>4</v>
       </c>
@@ -5582,14 +5582,14 @@
       <c r="AV38" s="18"/>
     </row>
     <row r="39" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="141"/>
+      <c r="A39" s="310"/>
       <c r="B39" s="104"/>
       <c r="C39" s="104"/>
       <c r="D39" s="104"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="150"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="130"/>
       <c r="I39" s="112"/>
       <c r="J39" s="121"/>
       <c r="K39" s="118"/>
@@ -5599,9 +5599,9 @@
       <c r="O39" s="121"/>
       <c r="P39" s="121"/>
       <c r="Q39" s="124"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="324"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="321"/>
       <c r="U39" s="38">
         <v>11</v>
       </c>
@@ -5644,14 +5644,14 @@
       <c r="AV39" s="18"/>
     </row>
     <row r="40" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="141"/>
+      <c r="A40" s="310"/>
       <c r="B40" s="104"/>
       <c r="C40" s="104"/>
       <c r="D40" s="104"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="150"/>
+      <c r="E40" s="313"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="130"/>
       <c r="I40" s="112"/>
       <c r="J40" s="121"/>
       <c r="K40" s="118"/>
@@ -5661,9 +5661,9 @@
       <c r="O40" s="121"/>
       <c r="P40" s="121"/>
       <c r="Q40" s="124"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="324"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="321"/>
       <c r="U40" s="38">
         <v>18</v>
       </c>
@@ -5706,14 +5706,14 @@
       <c r="AV40" s="18"/>
     </row>
     <row r="41" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="141"/>
+      <c r="A41" s="310"/>
       <c r="B41" s="104"/>
       <c r="C41" s="104"/>
       <c r="D41" s="104"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="150"/>
+      <c r="E41" s="313"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="130"/>
       <c r="I41" s="112"/>
       <c r="J41" s="121"/>
       <c r="K41" s="118"/>
@@ -5723,9 +5723,9 @@
       <c r="O41" s="121"/>
       <c r="P41" s="121"/>
       <c r="Q41" s="124"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="324"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="321"/>
       <c r="U41" s="38">
         <v>25</v>
       </c>
@@ -5768,15 +5768,15 @@
       <c r="AV41" s="18"/>
     </row>
     <row r="42" spans="1:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="142"/>
+      <c r="A42" s="311"/>
       <c r="B42" s="105"/>
       <c r="C42" s="105"/>
       <c r="D42" s="105"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="152"/>
+      <c r="E42" s="314"/>
+      <c r="F42" s="314"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
       <c r="J42" s="122"/>
       <c r="K42" s="119"/>
       <c r="L42" s="119"/>
@@ -5785,15 +5785,15 @@
       <c r="O42" s="122"/>
       <c r="P42" s="122"/>
       <c r="Q42" s="125"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="325"/>
-      <c r="U42" s="189"/>
-      <c r="V42" s="190"/>
-      <c r="W42" s="190"/>
-      <c r="X42" s="190"/>
-      <c r="Y42" s="190"/>
-      <c r="Z42" s="191"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="322"/>
+      <c r="U42" s="183"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="185"/>
       <c r="AA42" s="70"/>
       <c r="AB42" s="71"/>
       <c r="AC42" s="71"/>
@@ -5818,36 +5818,36 @@
       <c r="AV42" s="18"/>
     </row>
     <row r="43" spans="1:48" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="251" t="s">
+      <c r="A43" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="252"/>
-      <c r="E43" s="252"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="252"/>
-      <c r="H43" s="318" t="s">
+      <c r="B43" s="272"/>
+      <c r="C43" s="272"/>
+      <c r="D43" s="272"/>
+      <c r="E43" s="272"/>
+      <c r="F43" s="272"/>
+      <c r="G43" s="272"/>
+      <c r="H43" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="319"/>
-      <c r="J43" s="319"/>
-      <c r="K43" s="319"/>
-      <c r="L43" s="319"/>
-      <c r="M43" s="319"/>
-      <c r="N43" s="319"/>
-      <c r="O43" s="319"/>
-      <c r="P43" s="319"/>
-      <c r="Q43" s="319"/>
-      <c r="R43" s="319"/>
-      <c r="S43" s="319"/>
-      <c r="T43" s="319"/>
-      <c r="U43" s="320"/>
-      <c r="V43" s="320"/>
-      <c r="W43" s="320"/>
-      <c r="X43" s="320"/>
-      <c r="Y43" s="320"/>
-      <c r="Z43" s="321"/>
+      <c r="I43" s="316"/>
+      <c r="J43" s="316"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="316"/>
+      <c r="Q43" s="316"/>
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="317"/>
+      <c r="V43" s="317"/>
+      <c r="W43" s="317"/>
+      <c r="X43" s="317"/>
+      <c r="Y43" s="317"/>
+      <c r="Z43" s="318"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
@@ -5872,13 +5872,13 @@
       <c r="AV43" s="18"/>
     </row>
     <row r="44" spans="1:48" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A44" s="253"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
-      <c r="E44" s="254"/>
-      <c r="F44" s="254"/>
-      <c r="G44" s="254"/>
+      <c r="A44" s="273"/>
+      <c r="B44" s="274"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="274"/>
+      <c r="E44" s="274"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="274"/>
       <c r="H44" s="327" t="s">
         <v>41</v>
       </c>
@@ -5983,25 +5983,25 @@
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="J46" s="316"/>
-      <c r="K46" s="316"/>
-      <c r="L46" s="316"/>
-      <c r="M46" s="316"/>
-      <c r="N46" s="316"/>
-      <c r="O46" s="316"/>
-      <c r="P46" s="316"/>
-      <c r="Q46" s="317"/>
+      <c r="J46" s="304"/>
+      <c r="K46" s="304"/>
+      <c r="L46" s="304"/>
+      <c r="M46" s="304"/>
+      <c r="N46" s="304"/>
+      <c r="O46" s="304"/>
+      <c r="P46" s="304"/>
+      <c r="Q46" s="305"/>
       <c r="R46" s="6"/>
       <c r="S46" s="7">
         <f>SUM(S13:S42)</f>
-        <v>154</v>
-      </c>
-      <c r="T46" s="314"/>
-      <c r="U46" s="315"/>
-      <c r="V46" s="315"/>
-      <c r="W46" s="315"/>
-      <c r="X46" s="315"/>
-      <c r="Y46" s="315"/>
+        <v>144</v>
+      </c>
+      <c r="T46" s="302"/>
+      <c r="U46" s="303"/>
+      <c r="V46" s="303"/>
+      <c r="W46" s="303"/>
+      <c r="X46" s="303"/>
+      <c r="Y46" s="303"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
@@ -6027,33 +6027,33 @@
       <c r="AV46" s="18"/>
     </row>
     <row r="47" spans="1:48" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="312" t="s">
+      <c r="A47" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="313"/>
-      <c r="C47" s="313"/>
-      <c r="D47" s="313"/>
-      <c r="E47" s="313"/>
-      <c r="F47" s="313"/>
-      <c r="G47" s="313"/>
-      <c r="H47" s="313"/>
-      <c r="I47" s="313"/>
-      <c r="J47" s="313"/>
-      <c r="K47" s="313"/>
-      <c r="L47" s="313"/>
-      <c r="M47" s="313"/>
-      <c r="N47" s="313"/>
-      <c r="O47" s="313"/>
-      <c r="P47" s="313"/>
-      <c r="Q47" s="313"/>
-      <c r="R47" s="313"/>
-      <c r="S47" s="313"/>
-      <c r="T47" s="313"/>
-      <c r="U47" s="313"/>
-      <c r="V47" s="313"/>
-      <c r="W47" s="313"/>
-      <c r="X47" s="313"/>
-      <c r="Y47" s="313"/>
+      <c r="B47" s="301"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="301"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="301"/>
+      <c r="J47" s="301"/>
+      <c r="K47" s="301"/>
+      <c r="L47" s="301"/>
+      <c r="M47" s="301"/>
+      <c r="N47" s="301"/>
+      <c r="O47" s="301"/>
+      <c r="P47" s="301"/>
+      <c r="Q47" s="301"/>
+      <c r="R47" s="301"/>
+      <c r="S47" s="301"/>
+      <c r="T47" s="301"/>
+      <c r="U47" s="301"/>
+      <c r="V47" s="301"/>
+      <c r="W47" s="301"/>
+      <c r="X47" s="301"/>
+      <c r="Y47" s="301"/>
       <c r="Z47" s="27"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
@@ -6079,52 +6079,52 @@
       <c r="AV47" s="18"/>
     </row>
     <row r="48" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="288" t="s">
+      <c r="A48" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="289"/>
-      <c r="C48" s="289"/>
-      <c r="D48" s="289"/>
-      <c r="E48" s="221"/>
-      <c r="F48" s="220" t="s">
+      <c r="B48" s="285"/>
+      <c r="C48" s="285"/>
+      <c r="D48" s="285"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="221"/>
-      <c r="H48" s="184" t="s">
+      <c r="G48" s="215"/>
+      <c r="H48" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="294" t="s">
+      <c r="I48" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="233" t="s">
+      <c r="J48" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="234"/>
-      <c r="L48" s="234"/>
-      <c r="M48" s="234"/>
-      <c r="N48" s="234"/>
-      <c r="O48" s="234"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="228"/>
+      <c r="N48" s="228"/>
+      <c r="O48" s="228"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="226" t="s">
+      <c r="Q48" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="R48" s="224" t="s">
+      <c r="R48" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="S48" s="224" t="s">
+      <c r="S48" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="184" t="s">
+      <c r="T48" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="U48" s="233" t="s">
+      <c r="U48" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="V48" s="234"/>
-      <c r="W48" s="234"/>
-      <c r="X48" s="234"/>
-      <c r="Y48" s="234"/>
-      <c r="Z48" s="322"/>
+      <c r="V48" s="228"/>
+      <c r="W48" s="228"/>
+      <c r="X48" s="228"/>
+      <c r="Y48" s="228"/>
+      <c r="Z48" s="319"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
       <c r="AC48" s="33"/>
@@ -6149,15 +6149,15 @@
       <c r="AV48" s="18"/>
     </row>
     <row r="49" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="290"/>
-      <c r="B49" s="291"/>
-      <c r="C49" s="291"/>
-      <c r="D49" s="291"/>
-      <c r="E49" s="292"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="292"/>
-      <c r="H49" s="296"/>
-      <c r="I49" s="295"/>
+      <c r="A49" s="286"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="287"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="288"/>
+      <c r="F49" s="306"/>
+      <c r="G49" s="288"/>
+      <c r="H49" s="297"/>
+      <c r="I49" s="308"/>
       <c r="J49" s="8" t="s">
         <v>13</v>
       </c>
@@ -6179,10 +6179,10 @@
       <c r="P49" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q49" s="310"/>
-      <c r="R49" s="311"/>
-      <c r="S49" s="311"/>
-      <c r="T49" s="296"/>
+      <c r="Q49" s="298"/>
+      <c r="R49" s="299"/>
+      <c r="S49" s="299"/>
+      <c r="T49" s="297"/>
       <c r="U49" s="8" t="s">
         <v>13</v>
       </c>
@@ -6225,18 +6225,18 @@
       <c r="AV49" s="18"/>
     </row>
     <row r="50" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="297" t="s">
+      <c r="A50" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="298"/>
-      <c r="C50" s="298"/>
-      <c r="D50" s="298"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="297" t="s">
+      <c r="B50" s="267"/>
+      <c r="C50" s="267"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="268"/>
+      <c r="F50" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="299"/>
-      <c r="H50" s="195"/>
+      <c r="G50" s="268"/>
+      <c r="H50" s="189"/>
       <c r="I50" s="114"/>
       <c r="J50" s="114"/>
       <c r="K50" s="114"/>
@@ -6245,20 +6245,20 @@
       <c r="N50" s="114"/>
       <c r="O50" s="114"/>
       <c r="P50" s="114"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="196">
+      <c r="Q50" s="189"/>
+      <c r="R50" s="190">
         <v>42997</v>
       </c>
-      <c r="S50" s="196">
+      <c r="S50" s="190">
         <v>42997</v>
       </c>
-      <c r="T50" s="323">
-        <v>2</v>
-      </c>
-      <c r="U50" s="192"/>
-      <c r="V50" s="193"/>
-      <c r="W50" s="193"/>
-      <c r="X50" s="194"/>
+      <c r="T50" s="320">
+        <v>8</v>
+      </c>
+      <c r="U50" s="186"/>
+      <c r="V50" s="187"/>
+      <c r="W50" s="187"/>
+      <c r="X50" s="188"/>
       <c r="Y50" s="37">
         <v>1</v>
       </c>
@@ -6289,13 +6289,13 @@
       <c r="AV50" s="18"/>
     </row>
     <row r="51" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="300"/>
-      <c r="B51" s="273"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="273"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="300"/>
-      <c r="G51" s="274"/>
+      <c r="A51" s="269"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="255"/>
+      <c r="F51" s="269"/>
+      <c r="G51" s="255"/>
       <c r="H51" s="86"/>
       <c r="I51" s="115"/>
       <c r="J51" s="115"/>
@@ -6306,9 +6306,9 @@
       <c r="O51" s="115"/>
       <c r="P51" s="115"/>
       <c r="Q51" s="86"/>
-      <c r="R51" s="197"/>
-      <c r="S51" s="197"/>
-      <c r="T51" s="324"/>
+      <c r="R51" s="191"/>
+      <c r="S51" s="191"/>
+      <c r="T51" s="321"/>
       <c r="U51" s="38">
         <v>4</v>
       </c>
@@ -6351,13 +6351,13 @@
       <c r="AV51" s="18"/>
     </row>
     <row r="52" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="300"/>
-      <c r="B52" s="273"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="300"/>
-      <c r="G52" s="274"/>
+      <c r="A52" s="269"/>
+      <c r="B52" s="254"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="255"/>
+      <c r="F52" s="269"/>
+      <c r="G52" s="255"/>
       <c r="H52" s="86"/>
       <c r="I52" s="115"/>
       <c r="J52" s="115"/>
@@ -6368,9 +6368,9 @@
       <c r="O52" s="115"/>
       <c r="P52" s="115"/>
       <c r="Q52" s="86"/>
-      <c r="R52" s="197"/>
-      <c r="S52" s="197"/>
-      <c r="T52" s="324"/>
+      <c r="R52" s="191"/>
+      <c r="S52" s="191"/>
+      <c r="T52" s="321"/>
       <c r="U52" s="38">
         <v>11</v>
       </c>
@@ -6413,13 +6413,13 @@
       <c r="AV52" s="18"/>
     </row>
     <row r="53" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="300"/>
-      <c r="B53" s="273"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="300"/>
-      <c r="G53" s="274"/>
+      <c r="A53" s="269"/>
+      <c r="B53" s="254"/>
+      <c r="C53" s="254"/>
+      <c r="D53" s="254"/>
+      <c r="E53" s="255"/>
+      <c r="F53" s="269"/>
+      <c r="G53" s="255"/>
       <c r="H53" s="86"/>
       <c r="I53" s="115"/>
       <c r="J53" s="115"/>
@@ -6430,9 +6430,9 @@
       <c r="O53" s="115"/>
       <c r="P53" s="115"/>
       <c r="Q53" s="86"/>
-      <c r="R53" s="197"/>
-      <c r="S53" s="197"/>
-      <c r="T53" s="324"/>
+      <c r="R53" s="191"/>
+      <c r="S53" s="191"/>
+      <c r="T53" s="321"/>
       <c r="U53" s="38">
         <v>18</v>
       </c>
@@ -6475,13 +6475,13 @@
       <c r="AV53" s="18"/>
     </row>
     <row r="54" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="300"/>
-      <c r="B54" s="273"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="300"/>
-      <c r="G54" s="274"/>
+      <c r="A54" s="269"/>
+      <c r="B54" s="254"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="255"/>
+      <c r="F54" s="269"/>
+      <c r="G54" s="255"/>
       <c r="H54" s="86"/>
       <c r="I54" s="115"/>
       <c r="J54" s="115"/>
@@ -6492,9 +6492,9 @@
       <c r="O54" s="115"/>
       <c r="P54" s="115"/>
       <c r="Q54" s="86"/>
-      <c r="R54" s="197"/>
-      <c r="S54" s="197"/>
-      <c r="T54" s="324"/>
+      <c r="R54" s="191"/>
+      <c r="S54" s="191"/>
+      <c r="T54" s="321"/>
       <c r="U54" s="38">
         <v>25</v>
       </c>
@@ -6537,13 +6537,13 @@
       <c r="AV54" s="18"/>
     </row>
     <row r="55" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="301"/>
-      <c r="B55" s="276"/>
-      <c r="C55" s="276"/>
-      <c r="D55" s="276"/>
-      <c r="E55" s="277"/>
-      <c r="F55" s="301"/>
-      <c r="G55" s="277"/>
+      <c r="A55" s="270"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="257"/>
+      <c r="D55" s="257"/>
+      <c r="E55" s="258"/>
+      <c r="F55" s="270"/>
+      <c r="G55" s="258"/>
       <c r="H55" s="87"/>
       <c r="I55" s="116"/>
       <c r="J55" s="116"/>
@@ -6554,15 +6554,15 @@
       <c r="O55" s="116"/>
       <c r="P55" s="116"/>
       <c r="Q55" s="87"/>
-      <c r="R55" s="198"/>
-      <c r="S55" s="198"/>
-      <c r="T55" s="325"/>
-      <c r="U55" s="189"/>
-      <c r="V55" s="190"/>
-      <c r="W55" s="190"/>
-      <c r="X55" s="190"/>
-      <c r="Y55" s="190"/>
-      <c r="Z55" s="191"/>
+      <c r="R55" s="192"/>
+      <c r="S55" s="192"/>
+      <c r="T55" s="322"/>
+      <c r="U55" s="183"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="185"/>
       <c r="AA55" s="33"/>
       <c r="AB55" s="33"/>
       <c r="AC55" s="33"/>
@@ -6587,7 +6587,7 @@
       <c r="AV55" s="18"/>
     </row>
     <row r="56" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="285"/>
+      <c r="A56" s="281"/>
       <c r="B56" s="77"/>
       <c r="C56" s="77"/>
       <c r="D56" s="77"/>
@@ -6604,13 +6604,13 @@
       <c r="O56" s="88"/>
       <c r="P56" s="88"/>
       <c r="Q56" s="88"/>
-      <c r="R56" s="255"/>
-      <c r="S56" s="258"/>
-      <c r="T56" s="261"/>
-      <c r="U56" s="192"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="194"/>
+      <c r="R56" s="275"/>
+      <c r="S56" s="278"/>
+      <c r="T56" s="324"/>
+      <c r="U56" s="186"/>
+      <c r="V56" s="187"/>
+      <c r="W56" s="187"/>
+      <c r="X56" s="188"/>
       <c r="Y56" s="37">
         <v>1</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="AV56" s="18"/>
     </row>
     <row r="57" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="286"/>
+      <c r="A57" s="282"/>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
@@ -6658,9 +6658,9 @@
       <c r="O57" s="89"/>
       <c r="P57" s="89"/>
       <c r="Q57" s="89"/>
-      <c r="R57" s="256"/>
-      <c r="S57" s="259"/>
-      <c r="T57" s="262"/>
+      <c r="R57" s="276"/>
+      <c r="S57" s="279"/>
+      <c r="T57" s="325"/>
       <c r="U57" s="38">
         <v>4</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="AV57" s="18"/>
     </row>
     <row r="58" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="286"/>
+      <c r="A58" s="282"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
@@ -6720,9 +6720,9 @@
       <c r="O58" s="89"/>
       <c r="P58" s="89"/>
       <c r="Q58" s="89"/>
-      <c r="R58" s="256"/>
-      <c r="S58" s="259"/>
-      <c r="T58" s="262"/>
+      <c r="R58" s="276"/>
+      <c r="S58" s="279"/>
+      <c r="T58" s="325"/>
       <c r="U58" s="38">
         <v>11</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="AV58" s="18"/>
     </row>
     <row r="59" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="286"/>
+      <c r="A59" s="282"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -6782,9 +6782,9 @@
       <c r="O59" s="89"/>
       <c r="P59" s="89"/>
       <c r="Q59" s="89"/>
-      <c r="R59" s="256"/>
-      <c r="S59" s="259"/>
-      <c r="T59" s="262"/>
+      <c r="R59" s="276"/>
+      <c r="S59" s="279"/>
+      <c r="T59" s="325"/>
       <c r="U59" s="38">
         <v>18</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="AV59" s="18"/>
     </row>
     <row r="60" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="286"/>
+      <c r="A60" s="282"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="80"/>
@@ -6844,9 +6844,9 @@
       <c r="O60" s="89"/>
       <c r="P60" s="89"/>
       <c r="Q60" s="89"/>
-      <c r="R60" s="256"/>
-      <c r="S60" s="259"/>
-      <c r="T60" s="262"/>
+      <c r="R60" s="276"/>
+      <c r="S60" s="279"/>
+      <c r="T60" s="325"/>
       <c r="U60" s="38">
         <v>25</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="AV60" s="18"/>
     </row>
     <row r="61" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="287"/>
+      <c r="A61" s="283"/>
       <c r="B61" s="83"/>
       <c r="C61" s="83"/>
       <c r="D61" s="83"/>
@@ -6906,15 +6906,15 @@
       <c r="O61" s="90"/>
       <c r="P61" s="90"/>
       <c r="Q61" s="90"/>
-      <c r="R61" s="257"/>
-      <c r="S61" s="260"/>
-      <c r="T61" s="263"/>
-      <c r="U61" s="189"/>
-      <c r="V61" s="190"/>
-      <c r="W61" s="190"/>
-      <c r="X61" s="190"/>
-      <c r="Y61" s="190"/>
-      <c r="Z61" s="191"/>
+      <c r="R61" s="277"/>
+      <c r="S61" s="280"/>
+      <c r="T61" s="326"/>
+      <c r="U61" s="183"/>
+      <c r="V61" s="184"/>
+      <c r="W61" s="184"/>
+      <c r="X61" s="184"/>
+      <c r="Y61" s="184"/>
+      <c r="Z61" s="185"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
       <c r="AC61" s="33"/>
@@ -6956,13 +6956,13 @@
       <c r="O62" s="88"/>
       <c r="P62" s="88"/>
       <c r="Q62" s="88"/>
-      <c r="R62" s="255"/>
-      <c r="S62" s="258"/>
-      <c r="T62" s="261"/>
-      <c r="U62" s="192"/>
-      <c r="V62" s="193"/>
-      <c r="W62" s="193"/>
-      <c r="X62" s="194"/>
+      <c r="R62" s="275"/>
+      <c r="S62" s="278"/>
+      <c r="T62" s="324"/>
+      <c r="U62" s="186"/>
+      <c r="V62" s="187"/>
+      <c r="W62" s="187"/>
+      <c r="X62" s="188"/>
       <c r="Y62" s="37">
         <v>1</v>
       </c>
@@ -7010,9 +7010,9 @@
       <c r="O63" s="89"/>
       <c r="P63" s="89"/>
       <c r="Q63" s="89"/>
-      <c r="R63" s="256"/>
-      <c r="S63" s="259"/>
-      <c r="T63" s="262"/>
+      <c r="R63" s="276"/>
+      <c r="S63" s="279"/>
+      <c r="T63" s="325"/>
       <c r="U63" s="38">
         <v>4</v>
       </c>
@@ -7072,9 +7072,9 @@
       <c r="O64" s="89"/>
       <c r="P64" s="89"/>
       <c r="Q64" s="89"/>
-      <c r="R64" s="256"/>
-      <c r="S64" s="259"/>
-      <c r="T64" s="262"/>
+      <c r="R64" s="276"/>
+      <c r="S64" s="279"/>
+      <c r="T64" s="325"/>
       <c r="U64" s="38">
         <v>11</v>
       </c>
@@ -7134,9 +7134,9 @@
       <c r="O65" s="89"/>
       <c r="P65" s="89"/>
       <c r="Q65" s="89"/>
-      <c r="R65" s="256"/>
-      <c r="S65" s="259"/>
-      <c r="T65" s="262"/>
+      <c r="R65" s="276"/>
+      <c r="S65" s="279"/>
+      <c r="T65" s="325"/>
       <c r="U65" s="38">
         <v>18</v>
       </c>
@@ -7196,9 +7196,9 @@
       <c r="O66" s="89"/>
       <c r="P66" s="89"/>
       <c r="Q66" s="89"/>
-      <c r="R66" s="256"/>
-      <c r="S66" s="259"/>
-      <c r="T66" s="262"/>
+      <c r="R66" s="276"/>
+      <c r="S66" s="279"/>
+      <c r="T66" s="325"/>
       <c r="U66" s="38">
         <v>25</v>
       </c>
@@ -7258,15 +7258,15 @@
       <c r="O67" s="90"/>
       <c r="P67" s="90"/>
       <c r="Q67" s="90"/>
-      <c r="R67" s="257"/>
-      <c r="S67" s="260"/>
-      <c r="T67" s="263"/>
-      <c r="U67" s="189"/>
-      <c r="V67" s="190"/>
-      <c r="W67" s="190"/>
-      <c r="X67" s="190"/>
-      <c r="Y67" s="190"/>
-      <c r="Z67" s="191"/>
+      <c r="R67" s="277"/>
+      <c r="S67" s="280"/>
+      <c r="T67" s="326"/>
+      <c r="U67" s="183"/>
+      <c r="V67" s="184"/>
+      <c r="W67" s="184"/>
+      <c r="X67" s="184"/>
+      <c r="Y67" s="184"/>
+      <c r="Z67" s="185"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
       <c r="AC67" s="33"/>
@@ -7291,30 +7291,30 @@
       <c r="AV67" s="18"/>
     </row>
     <row r="68" spans="1:54" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="269"/>
-      <c r="B68" s="270"/>
-      <c r="C68" s="270"/>
-      <c r="D68" s="270"/>
-      <c r="E68" s="271"/>
-      <c r="F68" s="278"/>
-      <c r="G68" s="279"/>
+      <c r="A68" s="250"/>
+      <c r="B68" s="251"/>
+      <c r="C68" s="251"/>
+      <c r="D68" s="251"/>
+      <c r="E68" s="252"/>
+      <c r="F68" s="259"/>
+      <c r="G68" s="260"/>
       <c r="H68" s="85"/>
-      <c r="I68" s="284"/>
-      <c r="J68" s="284"/>
-      <c r="K68" s="284"/>
-      <c r="L68" s="284"/>
-      <c r="M68" s="284"/>
-      <c r="N68" s="284"/>
-      <c r="O68" s="284"/>
-      <c r="P68" s="284"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
+      <c r="K68" s="265"/>
+      <c r="L68" s="265"/>
+      <c r="M68" s="265"/>
+      <c r="N68" s="265"/>
+      <c r="O68" s="265"/>
+      <c r="P68" s="265"/>
       <c r="Q68" s="85"/>
       <c r="R68" s="330"/>
       <c r="S68" s="330"/>
-      <c r="T68" s="326"/>
-      <c r="U68" s="192"/>
-      <c r="V68" s="193"/>
-      <c r="W68" s="193"/>
-      <c r="X68" s="194"/>
+      <c r="T68" s="323"/>
+      <c r="U68" s="186"/>
+      <c r="V68" s="187"/>
+      <c r="W68" s="187"/>
+      <c r="X68" s="188"/>
       <c r="Y68" s="37">
         <v>1</v>
       </c>
@@ -7345,13 +7345,13 @@
       <c r="AV68" s="28"/>
     </row>
     <row r="69" spans="1:54" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="272"/>
-      <c r="B69" s="273"/>
-      <c r="C69" s="273"/>
-      <c r="D69" s="273"/>
-      <c r="E69" s="274"/>
-      <c r="F69" s="280"/>
-      <c r="G69" s="281"/>
+      <c r="A69" s="253"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="254"/>
+      <c r="D69" s="254"/>
+      <c r="E69" s="255"/>
+      <c r="F69" s="261"/>
+      <c r="G69" s="262"/>
       <c r="H69" s="86"/>
       <c r="I69" s="115"/>
       <c r="J69" s="115"/>
@@ -7362,9 +7362,9 @@
       <c r="O69" s="115"/>
       <c r="P69" s="115"/>
       <c r="Q69" s="86"/>
-      <c r="R69" s="197"/>
-      <c r="S69" s="197"/>
-      <c r="T69" s="324"/>
+      <c r="R69" s="191"/>
+      <c r="S69" s="191"/>
+      <c r="T69" s="321"/>
       <c r="U69" s="38">
         <v>4</v>
       </c>
@@ -7407,13 +7407,13 @@
       <c r="AV69" s="28"/>
     </row>
     <row r="70" spans="1:54" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="272"/>
-      <c r="B70" s="273"/>
-      <c r="C70" s="273"/>
-      <c r="D70" s="273"/>
-      <c r="E70" s="274"/>
-      <c r="F70" s="280"/>
-      <c r="G70" s="281"/>
+      <c r="A70" s="253"/>
+      <c r="B70" s="254"/>
+      <c r="C70" s="254"/>
+      <c r="D70" s="254"/>
+      <c r="E70" s="255"/>
+      <c r="F70" s="261"/>
+      <c r="G70" s="262"/>
       <c r="H70" s="86"/>
       <c r="I70" s="115"/>
       <c r="J70" s="115"/>
@@ -7424,9 +7424,9 @@
       <c r="O70" s="115"/>
       <c r="P70" s="115"/>
       <c r="Q70" s="86"/>
-      <c r="R70" s="197"/>
-      <c r="S70" s="197"/>
-      <c r="T70" s="324"/>
+      <c r="R70" s="191"/>
+      <c r="S70" s="191"/>
+      <c r="T70" s="321"/>
       <c r="U70" s="38">
         <v>11</v>
       </c>
@@ -7469,13 +7469,13 @@
       <c r="AV70" s="28"/>
     </row>
     <row r="71" spans="1:54" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="272"/>
-      <c r="B71" s="273"/>
-      <c r="C71" s="273"/>
-      <c r="D71" s="273"/>
-      <c r="E71" s="274"/>
-      <c r="F71" s="280"/>
-      <c r="G71" s="281"/>
+      <c r="A71" s="253"/>
+      <c r="B71" s="254"/>
+      <c r="C71" s="254"/>
+      <c r="D71" s="254"/>
+      <c r="E71" s="255"/>
+      <c r="F71" s="261"/>
+      <c r="G71" s="262"/>
       <c r="H71" s="86"/>
       <c r="I71" s="115"/>
       <c r="J71" s="115"/>
@@ -7486,9 +7486,9 @@
       <c r="O71" s="115"/>
       <c r="P71" s="115"/>
       <c r="Q71" s="86"/>
-      <c r="R71" s="197"/>
-      <c r="S71" s="197"/>
-      <c r="T71" s="324"/>
+      <c r="R71" s="191"/>
+      <c r="S71" s="191"/>
+      <c r="T71" s="321"/>
       <c r="U71" s="38">
         <v>18</v>
       </c>
@@ -7531,13 +7531,13 @@
       <c r="AV71" s="28"/>
     </row>
     <row r="72" spans="1:54" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="272"/>
-      <c r="B72" s="273"/>
-      <c r="C72" s="273"/>
-      <c r="D72" s="273"/>
-      <c r="E72" s="274"/>
-      <c r="F72" s="280"/>
-      <c r="G72" s="281"/>
+      <c r="A72" s="253"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="254"/>
+      <c r="D72" s="254"/>
+      <c r="E72" s="255"/>
+      <c r="F72" s="261"/>
+      <c r="G72" s="262"/>
       <c r="H72" s="86"/>
       <c r="I72" s="115"/>
       <c r="J72" s="115"/>
@@ -7548,9 +7548,9 @@
       <c r="O72" s="115"/>
       <c r="P72" s="115"/>
       <c r="Q72" s="86"/>
-      <c r="R72" s="197"/>
-      <c r="S72" s="197"/>
-      <c r="T72" s="324"/>
+      <c r="R72" s="191"/>
+      <c r="S72" s="191"/>
+      <c r="T72" s="321"/>
       <c r="U72" s="38">
         <v>25</v>
       </c>
@@ -7593,13 +7593,13 @@
       <c r="AV72" s="28"/>
     </row>
     <row r="73" spans="1:54" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="275"/>
-      <c r="B73" s="276"/>
-      <c r="C73" s="276"/>
-      <c r="D73" s="276"/>
-      <c r="E73" s="277"/>
-      <c r="F73" s="282"/>
-      <c r="G73" s="283"/>
+      <c r="A73" s="256"/>
+      <c r="B73" s="257"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="257"/>
+      <c r="E73" s="258"/>
+      <c r="F73" s="263"/>
+      <c r="G73" s="264"/>
       <c r="H73" s="87"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
@@ -7610,15 +7610,15 @@
       <c r="O73" s="116"/>
       <c r="P73" s="116"/>
       <c r="Q73" s="87"/>
-      <c r="R73" s="198"/>
-      <c r="S73" s="198"/>
-      <c r="T73" s="325"/>
-      <c r="U73" s="189"/>
-      <c r="V73" s="190"/>
-      <c r="W73" s="190"/>
-      <c r="X73" s="190"/>
-      <c r="Y73" s="190"/>
-      <c r="Z73" s="191"/>
+      <c r="R73" s="192"/>
+      <c r="S73" s="192"/>
+      <c r="T73" s="322"/>
+      <c r="U73" s="183"/>
+      <c r="V73" s="184"/>
+      <c r="W73" s="184"/>
+      <c r="X73" s="184"/>
+      <c r="Y73" s="184"/>
+      <c r="Z73" s="185"/>
       <c r="AA73" s="33"/>
       <c r="AB73" s="33"/>
       <c r="AC73" s="33"/>
@@ -7643,29 +7643,29 @@
       <c r="AV73" s="28"/>
     </row>
     <row r="74" spans="1:54" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="264"/>
-      <c r="B74" s="264"/>
-      <c r="C74" s="264"/>
-      <c r="D74" s="264"/>
-      <c r="E74" s="264"/>
-      <c r="F74" s="264"/>
-      <c r="G74" s="264"/>
-      <c r="H74" s="264"/>
-      <c r="I74" s="265"/>
-      <c r="J74" s="266" t="s">
+      <c r="A74" s="245"/>
+      <c r="B74" s="245"/>
+      <c r="C74" s="245"/>
+      <c r="D74" s="245"/>
+      <c r="E74" s="245"/>
+      <c r="F74" s="245"/>
+      <c r="G74" s="245"/>
+      <c r="H74" s="245"/>
+      <c r="I74" s="246"/>
+      <c r="J74" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="K74" s="267"/>
-      <c r="L74" s="267"/>
-      <c r="M74" s="267"/>
-      <c r="N74" s="267"/>
-      <c r="O74" s="267"/>
-      <c r="P74" s="267"/>
-      <c r="Q74" s="267"/>
-      <c r="R74" s="268"/>
+      <c r="K74" s="248"/>
+      <c r="L74" s="248"/>
+      <c r="M74" s="248"/>
+      <c r="N74" s="248"/>
+      <c r="O74" s="248"/>
+      <c r="P74" s="248"/>
+      <c r="Q74" s="248"/>
+      <c r="R74" s="249"/>
       <c r="T74" s="42">
         <f>(S46+T50)</f>
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="U74" s="73"/>
       <c r="V74" s="74"/>
@@ -33491,6 +33491,11 @@
     <mergeCell ref="P68:P73"/>
     <mergeCell ref="O68:O73"/>
     <mergeCell ref="Q56:Q61"/>
+    <mergeCell ref="O62:O67"/>
+    <mergeCell ref="P62:P67"/>
+    <mergeCell ref="R62:R67"/>
+    <mergeCell ref="S62:S67"/>
+    <mergeCell ref="T62:T67"/>
     <mergeCell ref="U19:X19"/>
     <mergeCell ref="U24:Z24"/>
     <mergeCell ref="U25:X25"/>
@@ -33510,6 +33515,7 @@
     <mergeCell ref="P50:P55"/>
     <mergeCell ref="S37:S42"/>
     <mergeCell ref="T37:T42"/>
+    <mergeCell ref="T56:T61"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="H25:I30"/>
@@ -33529,6 +33535,11 @@
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
     <mergeCell ref="A50:E55"/>
     <mergeCell ref="L50:L55"/>
     <mergeCell ref="M50:M55"/>
@@ -33538,11 +33549,11 @@
     <mergeCell ref="A43:G44"/>
     <mergeCell ref="R56:R61"/>
     <mergeCell ref="S56:S61"/>
-    <mergeCell ref="T56:T61"/>
     <mergeCell ref="P56:P61"/>
-    <mergeCell ref="O62:O67"/>
-    <mergeCell ref="P62:P67"/>
     <mergeCell ref="O56:O61"/>
+    <mergeCell ref="F56:G61"/>
+    <mergeCell ref="A56:E61"/>
+    <mergeCell ref="A48:E49"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="J74:R74"/>
     <mergeCell ref="A68:E73"/>
@@ -33553,12 +33564,6 @@
     <mergeCell ref="M68:M73"/>
     <mergeCell ref="L68:L73"/>
     <mergeCell ref="H68:H73"/>
-    <mergeCell ref="F56:G61"/>
-    <mergeCell ref="A56:E61"/>
-    <mergeCell ref="R62:R67"/>
-    <mergeCell ref="S62:S67"/>
-    <mergeCell ref="T62:T67"/>
-    <mergeCell ref="A48:E49"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="G10:G11"/>
@@ -33631,11 +33636,6 @@
     <mergeCell ref="Q13:Q18"/>
     <mergeCell ref="P13:P18"/>
     <mergeCell ref="O13:O18"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
     <mergeCell ref="G37:G42"/>
     <mergeCell ref="H37:I42"/>
     <mergeCell ref="J37:J42"/>
